--- a/rois_informations.xlsx
+++ b/rois_informations.xlsx
@@ -543,49 +543,61 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>299, 182</t>
+          <t>234, 204</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>236, 204</t>
+          <t>291, 177</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1.031408082717216</v>
+        <v>0.9960743658856868</v>
       </c>
       <c r="F2" t="n">
-        <v>11.1602473356761</v>
+        <v>11.25418873922899</v>
       </c>
       <c r="G2" t="n">
-        <v>11.1602473356761</v>
+        <v>11.25418873922899</v>
       </c>
       <c r="H2" t="n">
-        <v>11.31468450417742</v>
+        <v>11.48112966818735</v>
       </c>
       <c r="I2" t="n">
-        <v>11.31468450417742</v>
+        <v>11.48112966818735</v>
       </c>
       <c r="J2" t="n">
-        <v>11.32829441735521</v>
+        <v>11.53161503560841</v>
       </c>
       <c r="K2" t="n">
-        <v>11.32829441735521</v>
+        <v>11.53161503560841</v>
       </c>
       <c r="L2" t="n">
-        <v>11.24055642681196</v>
+        <v>11.48302527749911</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>11.240556426811963</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
+          <t>11.48302527749911</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>103.3054846938776</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.7622791325100794</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1166.640882837664</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3931213017751479</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="S2" t="n">
+        <v>78.74761525598225</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/rois_informations.xlsx
+++ b/rois_informations.xlsx
@@ -543,61 +543,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>234, 204</t>
+          <t>291, 195</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>291, 177</t>
+          <t>204, 185</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.9960743658856868</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.25418873922899</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11.25418873922899</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11.48112966818735</v>
-      </c>
-      <c r="I2" t="n">
-        <v>11.48112966818735</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.53161503560841</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.53161503560841</v>
-      </c>
-      <c r="L2" t="n">
-        <v>11.48302527749911</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>11.48302527749911</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>103.3054846938776</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7622791325100794</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1166.640882837664</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.3931213017751479</v>
-      </c>
-      <c r="R2" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="S2" t="n">
-        <v>78.74761525598225</v>
-      </c>
+        <v>1.134054102153408</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -612,16 +582,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>221, 205</t>
+          <t>292, 189</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>303, 194</t>
+          <t>216, 190</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.013755268615776</v>
+        <v>1.138320661356505</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -649,9 +619,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>292, 188</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>205, 192</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1.080391193805617</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -678,9 +658,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>296, 195</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>209, 188</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1.143227064324991</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -707,9 +697,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>301, 190</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>218, 193</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1.15160833999631</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -736,9 +736,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>291, 190</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>211, 190</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1.104683073654391</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -765,9 +775,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>294, 202</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>222, 196</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1.212162311343816</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -794,9 +814,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>304, 212</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>230, 200</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1.088044582561406</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -823,9 +853,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>308, 207</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>229, 196</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>1.119147885911734</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -852,9 +892,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>308, 212</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>229, 195</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>1.128150936410478</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -881,9 +931,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>308, 175</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>256, 236</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1.133291121646874</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -910,9 +970,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>310, 186</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>249, 242</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1.163917787363613</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -939,9 +1009,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>305, 180</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>255, 238</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>1.175587825242414</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -968,9 +1048,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>313, 183</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>269, 244</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.079989551437403</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -997,9 +1087,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>326, 183</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>271, 239</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1.066823493701624</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1026,9 +1126,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>326, 190</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>280, 244</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1.042201782203791</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1055,9 +1165,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>315, 182</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>268, 245</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1.045132274374436</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1084,9 +1204,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>316, 185</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>265, 244</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1.025659311662934</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1113,9 +1243,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>329, 187</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>265, 242</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.977563343594601</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1142,9 +1282,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>331, 189</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>253, 243</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9792614843133685</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1171,9 +1321,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>322, 144</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>295, 190</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.7952328483002237</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1200,9 +1360,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>317, 142</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>284, 192</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8392356355572946</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1229,9 +1399,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>323, 143</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>269, 197</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6858633218253908</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1258,9 +1438,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>321, 142</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>281, 195</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7688047253925822</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1287,9 +1477,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>330, 149</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>283, 190</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6975281042411855</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1316,9 +1516,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>334, 144</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>282, 190</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.6075680340050177</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1345,9 +1555,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>327, 137</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>285, 197</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.7460999734466277</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1374,9 +1594,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>319, 139</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>303, 196</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8697511876376477</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1403,9 +1633,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>322, 145</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>297, 200</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8368418204448294</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1432,9 +1672,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>327, 146</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>293, 194</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8033724835196075</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1461,9 +1711,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>273, 110</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>222, 133</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.919283287817225</v>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1490,9 +1750,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>303, 136</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>221, 135</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9141218864252085</v>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1519,9 +1789,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>304, 133</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>224, 135</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8758068403996037</v>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1548,9 +1828,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>298, 135</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>237, 145</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8483806356524696</v>
+      </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1577,9 +1867,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>301, 131</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>223, 138</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8496603596803999</v>
+      </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1606,9 +1906,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>298, 133</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>225, 138</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8623643557633294</v>
+      </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1635,9 +1945,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>315, 132</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>230, 137</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8261737474555125</v>
+      </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -1664,9 +1984,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>302, 130</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>225, 140</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8029967691877178</v>
+      </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1693,9 +2023,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>306, 124</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>233, 142</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.7876794480234443</v>
+      </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -1722,9 +2062,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>306, 121</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>229, 132</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8836011335557634</v>
+      </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -1751,9 +2101,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>334, 149</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>256, 159</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9991770948610993</v>
+      </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -1780,9 +2140,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>335, 151</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>266, 168</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1.013399660695287</v>
+      </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -1809,9 +2179,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>331, 142</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>264, 164</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.9616195936858497</v>
+      </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -1838,9 +2218,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>336, 142</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>267, 168</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.9600125944584383</v>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -1867,9 +2257,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>339, 145</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>279, 170</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1.007010093370953</v>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -1896,9 +2296,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>350, 157</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>276, 169</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1.058542413381123</v>
+      </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -1925,9 +2335,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>346, 150</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>277, 169</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1.042401578280969</v>
+      </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -1954,9 +2374,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>345, 152</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>282, 172</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>1.049045525581667</v>
+      </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -1983,9 +2413,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>350, 158</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>283, 172</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>1.055119970468808</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -2012,9 +2452,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>345, 157</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>267, 157</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>1.050218687298815</v>
+      </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -2041,9 +2491,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>350, 180</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>280, 189</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1.047571979721328</v>
+      </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -2070,9 +2530,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>351, 180</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>285, 195</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9971386816398738</v>
+      </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -2099,9 +2569,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>360, 181</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>282, 194</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9798946864528482</v>
+      </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -2128,9 +2608,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>364, 184</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>277, 197</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0.9644990099009902</v>
+      </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -2157,9 +2647,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>365, 187</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>284, 199</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0.9300905808188996</v>
+      </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -2186,9 +2686,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>351, 175</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>285, 198</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0.9680240586737043</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -2215,9 +2725,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>353, 176</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>295, 205</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0.9326647564469914</v>
+      </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -2244,9 +2764,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>360, 176</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>294, 207</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0.908302781971102</v>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -2273,9 +2803,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>334, 159</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>279, 194</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0.9759468233111763</v>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
@@ -2302,9 +2842,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>350, 172</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>279, 200</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9707405450290632</v>
+      </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
@@ -2331,9 +2881,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>318, 204</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>245, 233</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0.831143542740254</v>
+      </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
@@ -2360,9 +2920,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>319, 205</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>246, 231</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0.8304495597095627</v>
+      </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
@@ -2389,9 +2959,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>327, 201</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>261, 233</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0.8864602183770155</v>
+      </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
@@ -2418,9 +2998,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>332, 207</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>260, 233</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0.8991910773379092</v>
+      </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
@@ -2447,9 +3037,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>318, 204</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>256, 229</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0.980593290823399</v>
+      </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
@@ -2476,9 +3076,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>321, 202</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>266, 238</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0.9552845528455284</v>
+      </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
@@ -2505,9 +3115,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>316, 206</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>256, 231</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0.9471119210069077</v>
+      </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
@@ -2534,9 +3154,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>315, 204</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>255, 235</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0.9347661910885228</v>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
@@ -2563,9 +3193,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>327, 211</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>258, 232</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0.9907666725013128</v>
+      </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
@@ -2592,9 +3232,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>327, 221</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>247, 231</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0.9274417632925938</v>
+      </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
@@ -2621,9 +3271,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>323, 197</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>224, 212</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0.9290318675665042</v>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -2650,9 +3310,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>326, 200</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>239, 216</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0.8953052932926566</v>
+      </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
@@ -2679,9 +3349,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>335, 204</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>241, 217</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0.8590828385951285</v>
+      </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
@@ -2708,9 +3388,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>331, 198</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>237, 213</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0.8623480072055845</v>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
@@ -2737,9 +3427,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>336, 200</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>241, 214</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0.8316559926806953</v>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -2766,9 +3466,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>343, 206</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>248, 218</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8283421278006465</v>
+      </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
@@ -2795,9 +3505,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>348, 198</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>257, 223</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0.8076499269992562</v>
+      </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
@@ -2824,9 +3544,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>334, 199</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>253, 218</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8581916482891087</v>
+      </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
@@ -2853,9 +3583,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>330, 199</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>244, 217</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0.8551612769657569</v>
+      </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
@@ -2882,9 +3622,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>343, 198</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>250, 213</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0.8445579046839959</v>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -2911,9 +3661,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>286, 173</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>224, 192</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1.229132727947225</v>
+      </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
@@ -2940,9 +3700,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>286, 176</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>218, 187</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1.160520776487098</v>
+      </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
@@ -2969,9 +3739,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>295, 176</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>225, 195</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>1.157333121928017</v>
+      </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
@@ -2998,9 +3778,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>296, 175</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>224, 199</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1.134401493349926</v>
+      </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
@@ -3027,9 +3817,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>301, 181</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>242, 199</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>1.114459871317304</v>
+      </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
@@ -3056,9 +3856,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>298, 186</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>221, 194</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1.036856093776405</v>
+      </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
@@ -3085,9 +3895,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>292, 184</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>219, 189</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>1.027053697490474</v>
+      </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
@@ -3114,9 +3934,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>293, 168</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>223, 188</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1.15833359164316</v>
+      </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
@@ -3143,9 +3973,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>293, 172</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>214, 183</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1.093710363351488</v>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
@@ -3172,9 +4012,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>307, 180</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>221, 193</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>1.023866750355935</v>
+      </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
@@ -3201,9 +4051,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>294, 174</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>219, 181</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9080750793329283</v>
+      </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
@@ -3230,9 +4090,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>295, 170</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>206, 174</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8893022648652176</v>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr"/>
@@ -3259,9 +4129,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>290, 173</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>215, 184</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8134696222820335</v>
+      </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr"/>
@@ -3288,9 +4168,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>287, 167</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>209, 174</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9074464727671379</v>
+      </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr"/>
@@ -3317,9 +4207,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>285, 168</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>212, 182</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0.7992414179875439</v>
+      </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr"/>
@@ -3346,9 +4246,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>283, 165</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>207, 175</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0.8750356950217344</v>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
@@ -3375,9 +4285,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>293, 169</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>218, 182</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8219953234606391</v>
+      </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr"/>
@@ -3404,9 +4324,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>292, 169</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>221, 188</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0.7802193014305424</v>
+      </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr"/>
@@ -3433,9 +4363,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>291, 171</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>221, 181</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0.8777572934859953</v>
+      </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr"/>
@@ -3462,9 +4402,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>294, 173</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>223, 181</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0.8782361729023361</v>
+      </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr"/>
@@ -3491,9 +4441,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr"/>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>333, 165</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>249, 193</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0.8818694704449288</v>
+      </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
@@ -3520,9 +4480,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>338, 158</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>242, 196</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0.8883323474999686</v>
+      </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
@@ -3549,9 +4519,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>317, 151</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>241, 204</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0.7855461093262506</v>
+      </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr"/>
@@ -3578,9 +4558,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>327, 148</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>241, 197</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.8752257469890021</v>
+      </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr"/>
@@ -3607,9 +4597,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>338, 147</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>254, 199</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0.8419778824149623</v>
+      </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr"/>
@@ -3636,9 +4636,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>330, 158</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>253, 200</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.8309048347028473</v>
+      </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
@@ -3665,9 +4675,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>329, 161</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>246, 197</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0.8693385427035637</v>
+      </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr"/>
@@ -3694,9 +4714,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>336, 163</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>252, 199</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0.8647090049223047</v>
+      </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr"/>
@@ -3723,9 +4753,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>334, 164</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>243, 199</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8724160325454301</v>
+      </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr"/>
@@ -3752,9 +4792,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>313, 149</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>239, 204</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0.8287605178773778</v>
+      </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
@@ -3781,9 +4831,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>321, 152</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>234, 176</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0.8918282703732766</v>
+      </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr"/>
@@ -3810,9 +4870,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>344, 161</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>257, 179</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0.7406941965968784</v>
+      </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr"/>
@@ -3839,9 +4909,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>346, 192</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>248, 172</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0.910493146368363</v>
+      </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr"/>
@@ -3868,9 +4948,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>354, 181</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>249, 171</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9041271228771229</v>
+      </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
@@ -3897,9 +4987,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>385, 186</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>279, 181</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0.5775843339464956</v>
+      </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr"/>
@@ -3926,9 +5026,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>364, 172</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>258, 177</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0.8141994757605443</v>
+      </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
@@ -3955,9 +5065,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>378, 170</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>264, 179</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0.76406495693194</v>
+      </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
@@ -3984,9 +5104,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>379, 179</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>274, 180</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0.7291914428268745</v>
+      </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr"/>
@@ -4013,9 +5143,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>371, 171</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>250, 174</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0.778540680443616</v>
+      </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr"/>
@@ -4042,9 +5182,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>383, 179</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>269, 179</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0.7340116684811434</v>
+      </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr"/>
@@ -4071,9 +5221,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>307, 188</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>207, 184</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0.7369344355398498</v>
+      </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
@@ -4100,9 +5260,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>307, 187</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>210, 185</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0.7368387765943991</v>
+      </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
@@ -4129,9 +5299,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>307, 180</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>209, 193</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0.667379679144385</v>
+      </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
@@ -4158,9 +5338,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr"/>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>287, 182</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>205, 188</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0.7593438684910859</v>
+      </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
@@ -4187,9 +5377,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr"/>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr"/>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>304, 193</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>193, 183</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6998989558773997</v>
+      </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
@@ -4216,9 +5416,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr"/>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>290, 180</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>199, 180</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8038000077656834</v>
+      </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
@@ -4245,9 +5455,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr"/>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>301, 190</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>197, 184</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7200976004512183</v>
+      </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
@@ -4274,9 +5494,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr"/>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>289, 183</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>205, 185</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0.8070674885081487</v>
+      </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
@@ -4303,9 +5533,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr"/>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>285, 189</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>199, 190</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0.7505483984341862</v>
+      </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
@@ -4332,9 +5572,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr"/>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr"/>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>299, 200</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>207, 194</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>0.7113663683718445</v>
+      </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
@@ -4361,9 +5611,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr"/>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>305, 163</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>217, 161</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1.107536071590166</v>
+      </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr"/>
@@ -4390,9 +5650,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr"/>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr"/>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>308, 172</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>216, 155</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1.055747764214374</v>
+      </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr"/>
@@ -4419,9 +5689,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr"/>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>319, 164</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>225, 157</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>1.020324526038717</v>
+      </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr"/>
@@ -4448,9 +5728,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr"/>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>323, 168</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>218, 153</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9840497608280411</v>
+      </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
@@ -4477,9 +5767,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr"/>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>322, 171</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>221, 162</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>0.957890387885144</v>
+      </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr"/>
@@ -4506,9 +5806,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr"/>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>313, 174</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>220, 162</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>0.9739626227431105</v>
+      </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr"/>
@@ -4535,9 +5845,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr"/>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>310, 167</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>216, 157</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>0.9784094056815734</v>
+      </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr"/>
@@ -4564,9 +5884,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr"/>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>320, 158</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>219, 165</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>0.9019643589626727</v>
+      </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr"/>
@@ -4593,9 +5923,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr"/>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>328, 160</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>228, 162</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>0.9280991606358535</v>
+      </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr"/>
@@ -4622,9 +5962,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr"/>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>328, 160</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>217, 162</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>0.8688819967508492</v>
+      </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr"/>
@@ -4651,9 +6001,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr"/>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>261, 173</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>163, 167</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1.152020317129554</v>
+      </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr"/>
@@ -4680,9 +6040,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr"/>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>274, 184</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>160, 157</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1.106982867969365</v>
+      </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr"/>
@@ -4709,9 +6079,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>261, 175</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>154, 160</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>1.214397008413836</v>
+      </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr"/>
@@ -4738,9 +6118,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr"/>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>266, 176</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>161, 165</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1.170773523380509</v>
+      </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr"/>
@@ -4767,9 +6157,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr"/>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>271, 180</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>165, 164</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>1.115592170386691</v>
+      </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
@@ -4796,9 +6196,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr"/>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>272, 184</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>155, 157</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1.13068704799474</v>
+      </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr"/>
@@ -4825,9 +6235,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>262, 173</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>156, 157</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1.173101588450028</v>
+      </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr"/>
@@ -4854,9 +6274,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr"/>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>267, 180</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>156, 163</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1.161133843717001</v>
+      </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr"/>
@@ -4883,9 +6313,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr"/>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>273, 180</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>163, 170</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1.089245970987956</v>
+      </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr"/>
@@ -4912,9 +6352,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr"/>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>280, 181</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>165, 162</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>1.100353220109353</v>
+      </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr"/>
@@ -4941,9 +6391,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>308, 134</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>228, 105</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1.747534414114341</v>
+      </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr"/>
@@ -4970,9 +6430,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>314, 136</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>228, 109</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1.614427980371404</v>
+      </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr"/>
@@ -4999,9 +6469,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr"/>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>321, 136</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>232, 118</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1.056281291362145</v>
+      </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr"/>
@@ -5028,9 +6508,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr"/>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>317, 131</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>233, 125</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>0.9357533963531175</v>
+      </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr"/>
@@ -5057,9 +6547,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>321, 135</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>239, 126</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>0.9108890225785461</v>
+      </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr"/>
@@ -5086,9 +6586,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr"/>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>314, 138</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>241, 126</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>0.8910375874337441</v>
+      </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr"/>
@@ -5115,9 +6625,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr"/>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>323, 139</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>246, 124</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8673253352152435</v>
+      </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr"/>
@@ -5144,9 +6664,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>326, 152</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>253, 134</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>0.8919605044572874</v>
+      </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr"/>
@@ -5173,9 +6703,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr"/>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>329, 149</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>243, 123</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>0.9099080369808735</v>
+      </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr"/>
@@ -5202,9 +6742,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr"/>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>345, 151</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>250, 128</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>0.8154214056576262</v>
+      </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr"/>
@@ -5231,9 +6781,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>305, 186</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>224, 200</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>0.7508325543351251</v>
+      </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr"/>
@@ -5260,9 +6820,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr"/>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>313, 205</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>236, 208</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>0.7275612793487835</v>
+      </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr"/>
@@ -5289,9 +6859,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr"/>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>315, 204</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>220, 200</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>0.6738762027861553</v>
+      </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr"/>
@@ -5318,9 +6898,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr"/>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>322, 197</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>229, 206</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>0.6389282088677276</v>
+      </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr"/>
@@ -5347,9 +6937,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>323, 211</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>232, 205</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>0.6207435221279524</v>
+      </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr"/>
@@ -5376,9 +6976,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr"/>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>326, 200</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>232, 204</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6229125647196091</v>
+      </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="inlineStr"/>
@@ -5405,9 +7015,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>308, 198</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>227, 202</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>0.6961370592903299</v>
+      </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="inlineStr"/>
@@ -5434,9 +7054,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>323, 207</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>225, 194</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>0.6769585743127343</v>
+      </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr"/>
@@ -5463,9 +7093,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>319, 208</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>229, 199</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>0.7146435307431157</v>
+      </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr"/>
@@ -5492,9 +7132,19 @@
           <t>saudável</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>307, 195</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>234, 210</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>0.703673022380725</v>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr"/>
@@ -5521,9 +7171,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>354, 159</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>260, 164</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>0.9932178309390222</v>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr"/>
@@ -5550,9 +7210,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>347, 151</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>249, 168</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>0.9327594162773259</v>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr"/>
@@ -5579,9 +7249,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>358, 157</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>262, 168</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>0.926869994384845</v>
+      </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
@@ -5608,9 +7288,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr"/>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>359, 155</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>252, 173</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>0.841517416443379</v>
+      </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr"/>
@@ -5637,9 +7327,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr"/>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>355, 150</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>264, 172</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>0.8579900920028308</v>
+      </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
@@ -5666,9 +7366,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr"/>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>369, 167</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>269, 171</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>0.8425337427694065</v>
+      </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr"/>
@@ -5695,9 +7405,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>354, 156</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>262, 168</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>0.9186962857227823</v>
+      </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr"/>
@@ -5724,9 +7444,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>359, 151</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>259, 165</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>0.8941013935607881</v>
+      </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr"/>
@@ -5753,9 +7483,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr"/>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>366, 157</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>261, 169</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>0.8756769804033974</v>
+      </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr"/>
@@ -5782,9 +7522,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr"/>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>356, 158</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>262, 167</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>0.997608748629219</v>
+      </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr"/>
@@ -5811,9 +7561,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr"/>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>353, 158</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>254, 174</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>0.9763131543013199</v>
+      </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr"/>
@@ -5840,9 +7600,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>343, 163</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>256, 171</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1.019023820814942</v>
+      </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
@@ -5869,9 +7639,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr"/>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>354, 164</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>262, 172</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>0.9566144037955446</v>
+      </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr"/>
@@ -5898,9 +7678,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr"/>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>361, 162</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>267, 180</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>0.9506776102309602</v>
+      </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr"/>
@@ -5927,9 +7717,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr"/>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>366, 169</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>266, 179</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>0.89658035490162</v>
+      </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr"/>
@@ -5956,9 +7756,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr"/>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>361, 160</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>267, 179</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>0.9222069588453359</v>
+      </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr"/>
@@ -5985,9 +7795,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr"/>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>372, 169</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>267, 185</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>0.8264491165202142</v>
+      </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr"/>
@@ -6014,9 +7834,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr"/>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>365, 161</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>280, 186</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>0.9116150829094015</v>
+      </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr"/>
@@ -6043,9 +7873,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr"/>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>356, 151</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>259, 173</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>0.9386326270481961</v>
+      </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
@@ -6072,9 +7912,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr"/>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>353, 155</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>265, 180</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>0.9688908161918589</v>
+      </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
@@ -6101,9 +7951,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr"/>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>323, 196</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>236, 214</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1.196025634121385</v>
+      </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr"/>
@@ -6130,9 +7990,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>333, 192</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>250, 220</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1.107892625093837</v>
+      </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
@@ -6159,9 +8029,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>335, 188</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>256, 220</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1.061516376010208</v>
+      </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr"/>
@@ -6188,9 +8068,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>333, 181</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>262, 220</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1.252384206304406</v>
+      </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="inlineStr"/>
@@ -6217,9 +8107,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>339, 182</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>258, 217</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1.1309391294159</v>
+      </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="inlineStr"/>
@@ -6246,9 +8146,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr"/>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>339, 171</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>252, 217</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1.174868596639342</v>
+      </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr"/>
@@ -6275,9 +8185,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr"/>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>332, 195</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>256, 221</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1.331463342238053</v>
+      </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr"/>
@@ -6304,9 +8224,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr"/>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>340, 194</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>262, 227</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>1.204781797173585</v>
+      </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr"/>
@@ -6333,9 +8263,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr"/>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>342, 188</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>273, 224</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>1.166086852207294</v>
+      </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr"/>
@@ -6362,9 +8302,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr"/>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>344, 196</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>265, 223</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1.18105074090705</v>
+      </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr"/>
@@ -6391,9 +8341,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>398, 169</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>314, 192</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>0.5035063113604489</v>
+      </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
@@ -6420,9 +8380,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr"/>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>405, 181</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>303, 196</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>0.4781551712162256</v>
+      </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
@@ -6449,9 +8419,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr"/>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>406, 177</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>303, 193</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>0.5182332745662058</v>
+      </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
@@ -6478,9 +8458,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>387, 169</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>294, 194</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>0.7453450427104329</v>
+      </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
@@ -6507,9 +8497,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>383, 167</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>305, 202</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>0.7735496248087617</v>
+      </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
@@ -6536,9 +8536,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>384, 167</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>283, 204</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>0.8194543297746145</v>
+      </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
@@ -6565,9 +8575,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr"/>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>289, 198</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>360, 168</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>0.8348496835443039</v>
+      </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
@@ -6594,9 +8614,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr"/>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>357, 165</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>285, 205</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1.143441037051369</v>
+      </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
@@ -6623,9 +8653,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr"/>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>368, 162</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>291, 212</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>0.7705124867322212</v>
+      </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
@@ -6652,9 +8692,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>370, 161</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>287, 209</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>0.8300088963805778</v>
+      </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
@@ -6681,9 +8731,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr"/>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>330, 130</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>274, 177</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1.259228876127974</v>
+      </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr"/>
@@ -6710,9 +8770,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr"/>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>335, 135</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>292, 182</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1.311400041605991</v>
+      </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr"/>
@@ -6739,9 +8809,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr"/>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>332, 136</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>289, 184</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1.312062686689308</v>
+      </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
@@ -6768,9 +8848,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr"/>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr"/>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>341, 126</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>302, 184</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1.337343641417651</v>
+      </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="inlineStr"/>
@@ -6797,9 +8887,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr"/>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>358, 125</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>294, 182</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1.183264769144026</v>
+      </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="inlineStr"/>
@@ -6826,9 +8926,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>354, 131</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>285, 179</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1.19755119273802</v>
+      </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
@@ -6855,9 +8965,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>340, 130</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>295, 181</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>1.328520628936207</v>
+      </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
@@ -6884,9 +9004,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr"/>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>345, 132</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>279, 186</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1.143469075262148</v>
+      </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
@@ -6913,9 +9043,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr"/>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr"/>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>347, 131</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>284, 179</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1.269473905281949</v>
+      </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
@@ -6942,9 +9082,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr"/>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr"/>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>346, 119</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>278, 183</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>1.19360433820451</v>
+      </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
@@ -6971,9 +9121,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr"/>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>322, 183</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>225, 173</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1.371780538302277</v>
+      </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
@@ -7000,9 +9160,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr"/>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr"/>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>309, 181</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>222, 183</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1.24535153980244</v>
+      </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
@@ -7029,9 +9199,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr"/>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr"/>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>310, 175</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>224, 176</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>1.402527714442959</v>
+      </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
@@ -7058,9 +9238,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr"/>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr"/>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>311, 164</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>236, 179</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>1.376863309352518</v>
+      </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
@@ -7087,9 +9277,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr"/>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>303, 175</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>216, 174</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1.407286676869869</v>
+      </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr"/>
@@ -7116,9 +9316,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr"/>
-      <c r="D227" t="inlineStr"/>
-      <c r="E227" t="inlineStr"/>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>304, 165</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>216, 179</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1.266891229571014</v>
+      </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr"/>
@@ -7145,9 +9355,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>309, 170</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>215, 174</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1.392433846463427</v>
+      </c>
       <c r="F228" t="inlineStr"/>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr"/>
@@ -7174,9 +9394,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>311, 177</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>216, 182</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>1.286242852337706</v>
+      </c>
       <c r="F229" t="inlineStr"/>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="inlineStr"/>
@@ -7203,9 +9433,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>308, 180</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>218, 175</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>1.455975981091497</v>
+      </c>
       <c r="F230" t="inlineStr"/>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="inlineStr"/>
@@ -7232,9 +9472,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>294, 181</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>204, 180</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1.398284190903807</v>
+      </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr"/>
@@ -7261,9 +9511,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
-      <c r="D232" t="inlineStr"/>
-      <c r="E232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>289, 164</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>246, 212</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1.428794572035243</v>
+      </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr"/>
@@ -7290,9 +9550,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
-      <c r="D233" t="inlineStr"/>
-      <c r="E233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>311, 179</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>248, 213</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>0.9645108214150108</v>
+      </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr"/>
@@ -7319,9 +9589,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr"/>
-      <c r="D234" t="inlineStr"/>
-      <c r="E234" t="inlineStr"/>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>309, 181</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>252, 211</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>0.9966555183946487</v>
+      </c>
       <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr"/>
@@ -7348,9 +9628,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr"/>
-      <c r="D235" t="inlineStr"/>
-      <c r="E235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>310, 180</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>252, 217</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>0.9462694813416516</v>
+      </c>
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="inlineStr"/>
@@ -7377,9 +9667,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
-      <c r="E236" t="inlineStr"/>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>319, 183</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>261, 220</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>0.929811009835728</v>
+      </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr"/>
@@ -7406,9 +9706,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr"/>
-      <c r="D237" t="inlineStr"/>
-      <c r="E237" t="inlineStr"/>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>321, 192</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>255, 219</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>0.8314715657311669</v>
+      </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr"/>
@@ -7435,9 +9745,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr"/>
-      <c r="D238" t="inlineStr"/>
-      <c r="E238" t="inlineStr"/>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>315, 180</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>245, 213</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>0.8691751806628457</v>
+      </c>
       <c r="F238" t="inlineStr"/>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
@@ -7464,9 +9784,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr"/>
-      <c r="D239" t="inlineStr"/>
-      <c r="E239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>322, 193</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>242, 214</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>0.6958900650266209</v>
+      </c>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr"/>
@@ -7493,9 +9823,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr"/>
-      <c r="D240" t="inlineStr"/>
-      <c r="E240" t="inlineStr"/>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>307, 177</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>244, 207</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>1.017770521284399</v>
+      </c>
       <c r="F240" t="inlineStr"/>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="inlineStr"/>
@@ -7522,9 +9862,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr"/>
-      <c r="D241" t="inlineStr"/>
-      <c r="E241" t="inlineStr"/>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>304, 179</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>240, 211</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>0.9773240621816732</v>
+      </c>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="inlineStr"/>
@@ -7551,9 +9901,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr"/>
-      <c r="D242" t="inlineStr"/>
-      <c r="E242" t="inlineStr"/>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>341, 187</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>274, 195</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>0.9464600655076846</v>
+      </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr"/>
@@ -7580,9 +9940,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
-      <c r="D243" t="inlineStr"/>
-      <c r="E243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>351, 182</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>261, 193</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>0.8486650638997849</v>
+      </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="inlineStr"/>
@@ -7609,9 +9979,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr"/>
-      <c r="D244" t="inlineStr"/>
-      <c r="E244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>346, 176</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>253, 186</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>0.8826217335427674</v>
+      </c>
       <c r="F244" t="inlineStr"/>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr"/>
@@ -7638,9 +10018,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
-      <c r="D245" t="inlineStr"/>
-      <c r="E245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>347, 183</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>259, 193</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>0.9346221554661885</v>
+      </c>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr"/>
@@ -7667,9 +10057,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr"/>
-      <c r="D246" t="inlineStr"/>
-      <c r="E246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>335, 177</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>252, 189</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0.9918669131238446</v>
+      </c>
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
@@ -7696,9 +10096,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr"/>
-      <c r="D247" t="inlineStr"/>
-      <c r="E247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>331, 175</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>252, 188</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1.042408326038323</v>
+      </c>
       <c r="F247" t="inlineStr"/>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr"/>
@@ -7725,9 +10135,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr"/>
-      <c r="D248" t="inlineStr"/>
-      <c r="E248" t="inlineStr"/>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>333, 172</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>269, 204</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0.9267380079323505</v>
+      </c>
       <c r="F248" t="inlineStr"/>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr"/>
@@ -7754,9 +10174,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr"/>
-      <c r="D249" t="inlineStr"/>
-      <c r="E249" t="inlineStr"/>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>340, 177</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>273, 192</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1.024051646311343</v>
+      </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="inlineStr"/>
@@ -7783,9 +10213,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr"/>
-      <c r="D250" t="inlineStr"/>
-      <c r="E250" t="inlineStr"/>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>336, 177</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>268, 194</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1.008694077159935</v>
+      </c>
       <c r="F250" t="inlineStr"/>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="inlineStr"/>
@@ -7812,9 +10252,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr"/>
-      <c r="D251" t="inlineStr"/>
-      <c r="E251" t="inlineStr"/>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>338, 185</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>260, 187</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>1.018302440325377</v>
+      </c>
       <c r="F251" t="inlineStr"/>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr"/>
@@ -7841,9 +10291,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr"/>
-      <c r="D252" t="inlineStr"/>
-      <c r="E252" t="inlineStr"/>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>354, 161</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>294, 212</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1.325376884422111</v>
+      </c>
       <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr"/>
@@ -7870,9 +10330,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr"/>
-      <c r="D253" t="inlineStr"/>
-      <c r="E253" t="inlineStr"/>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>353, 164</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>292, 207</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1.378889514000087</v>
+      </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr"/>
@@ -7899,9 +10369,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr"/>
-      <c r="D254" t="inlineStr"/>
-      <c r="E254" t="inlineStr"/>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>357, 160</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>286, 220</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>1.226149127617655</v>
+      </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
@@ -7928,9 +10408,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr"/>
-      <c r="D255" t="inlineStr"/>
-      <c r="E255" t="inlineStr"/>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>324, 167</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>290, 216</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>1.559310109580864</v>
+      </c>
       <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr"/>
@@ -7957,9 +10447,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr"/>
-      <c r="D256" t="inlineStr"/>
-      <c r="E256" t="inlineStr"/>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>327, 160</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>282, 213</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1.515967349276815</v>
+      </c>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
@@ -7986,9 +10486,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr"/>
-      <c r="D257" t="inlineStr"/>
-      <c r="E257" t="inlineStr"/>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>315, 156</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>289, 213</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1.824991927671941</v>
+      </c>
       <c r="F257" t="inlineStr"/>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr"/>
@@ -8015,9 +10525,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr"/>
-      <c r="D258" t="inlineStr"/>
-      <c r="E258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>326, 161</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>274, 213</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1.591329993711101</v>
+      </c>
       <c r="F258" t="inlineStr"/>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr"/>
@@ -8044,9 +10564,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr"/>
-      <c r="D259" t="inlineStr"/>
-      <c r="E259" t="inlineStr"/>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>324, 158</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>267, 212</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>1.636933451488102</v>
+      </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr"/>
@@ -8073,9 +10603,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr"/>
-      <c r="D260" t="inlineStr"/>
-      <c r="E260" t="inlineStr"/>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>329, 159</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>273, 216</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>1.602350722540184</v>
+      </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr"/>
@@ -8102,9 +10642,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr"/>
-      <c r="D261" t="inlineStr"/>
-      <c r="E261" t="inlineStr"/>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>326, 159</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>277, 207</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>1.682086198073115</v>
+      </c>
       <c r="F261" t="inlineStr"/>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr"/>
@@ -8131,9 +10681,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr"/>
-      <c r="D262" t="inlineStr"/>
-      <c r="E262" t="inlineStr"/>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>320, 139</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>260, 151</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1.161371012427769</v>
+      </c>
       <c r="F262" t="inlineStr"/>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr"/>
@@ -8160,9 +10720,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr"/>
-      <c r="D263" t="inlineStr"/>
-      <c r="E263" t="inlineStr"/>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>320, 151</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>255, 150</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1.015991879009004</v>
+      </c>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
@@ -8189,9 +10759,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr"/>
-      <c r="D264" t="inlineStr"/>
-      <c r="E264" t="inlineStr"/>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>340, 145</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>276, 152</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>1.13202718912435</v>
+      </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
@@ -8218,9 +10798,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr"/>
-      <c r="D265" t="inlineStr"/>
-      <c r="E265" t="inlineStr"/>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>329, 148</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>266, 153</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1.098290598290598</v>
+      </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
@@ -8247,9 +10837,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr"/>
-      <c r="D266" t="inlineStr"/>
-      <c r="E266" t="inlineStr"/>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>330, 148</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>272, 150</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>1.123294936603961</v>
+      </c>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
@@ -8276,9 +10876,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr"/>
-      <c r="D267" t="inlineStr"/>
-      <c r="E267" t="inlineStr"/>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>328, 136</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>269, 147</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1.162507384522042</v>
+      </c>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
@@ -8305,9 +10915,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr"/>
-      <c r="D268" t="inlineStr"/>
-      <c r="E268" t="inlineStr"/>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>329, 143</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>271, 147</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>1.131405279503106</v>
+      </c>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
@@ -8334,9 +10954,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr"/>
-      <c r="D269" t="inlineStr"/>
-      <c r="E269" t="inlineStr"/>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>331, 144</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>276, 153</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>1.132455097839005</v>
+      </c>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
@@ -8363,9 +10993,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr"/>
-      <c r="D270" t="inlineStr"/>
-      <c r="E270" t="inlineStr"/>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>333, 144</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>279, 152</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1.146407064077407</v>
+      </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
@@ -8392,9 +11032,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr"/>
-      <c r="D271" t="inlineStr"/>
-      <c r="E271" t="inlineStr"/>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>333, 133</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>273, 143</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>1.209882889684975</v>
+      </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr"/>
@@ -8421,9 +11071,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr"/>
-      <c r="D272" t="inlineStr"/>
-      <c r="E272" t="inlineStr"/>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>297, 161</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>232, 172</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1.346666034035554</v>
+      </c>
       <c r="F272" t="inlineStr"/>
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
@@ -8450,9 +11110,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr"/>
-      <c r="D273" t="inlineStr"/>
-      <c r="E273" t="inlineStr"/>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>308, 162</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>235, 171</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>1.318861186963758</v>
+      </c>
       <c r="F273" t="inlineStr"/>
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr"/>
@@ -8479,9 +11149,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr"/>
-      <c r="D274" t="inlineStr"/>
-      <c r="E274" t="inlineStr"/>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>316, 175</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>239, 172</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>1.227865334102121</v>
+      </c>
       <c r="F274" t="inlineStr"/>
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr"/>
@@ -8508,9 +11188,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr"/>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>319, 170</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>244, 173</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>1.239980387815139</v>
+      </c>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr"/>
@@ -8537,9 +11227,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr"/>
-      <c r="D276" t="inlineStr"/>
-      <c r="E276" t="inlineStr"/>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>321, 168</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>244, 168</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1.224194536514868</v>
+      </c>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr"/>
@@ -8566,9 +11266,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr"/>
-      <c r="D277" t="inlineStr"/>
-      <c r="E277" t="inlineStr"/>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>318, 158</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>241, 171</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>1.212303121257599</v>
+      </c>
       <c r="F277" t="inlineStr"/>
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr"/>
@@ -8595,9 +11305,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr"/>
-      <c r="D278" t="inlineStr"/>
-      <c r="E278" t="inlineStr"/>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>319, 164</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>246, 173</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>1.228077404389097</v>
+      </c>
       <c r="F278" t="inlineStr"/>
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr"/>
@@ -8624,9 +11344,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr"/>
-      <c r="D279" t="inlineStr"/>
-      <c r="E279" t="inlineStr"/>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>320, 161</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>232, 163</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1.206471612253001</v>
+      </c>
       <c r="F279" t="inlineStr"/>
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr"/>
@@ -8653,9 +11383,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>322, 155</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>241, 171</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>1.184141615167068</v>
+      </c>
       <c r="F280" t="inlineStr"/>
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr"/>
@@ -8682,9 +11422,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr"/>
-      <c r="D281" t="inlineStr"/>
-      <c r="E281" t="inlineStr"/>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>328, 165</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>252, 165</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>1.214830301982299</v>
+      </c>
       <c r="F281" t="inlineStr"/>
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr"/>

--- a/rois_informations.xlsx
+++ b/rois_informations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S551"/>
+  <dimension ref="A1:S550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11461,9 +11461,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr"/>
-      <c r="D282" t="inlineStr"/>
-      <c r="E282" t="inlineStr"/>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>305, 177</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>240, 172</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1.028394663916994</v>
+      </c>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr"/>
@@ -11490,9 +11500,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr"/>
-      <c r="D283" t="inlineStr"/>
-      <c r="E283" t="inlineStr"/>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>303, 175</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>252, 174</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0.9996464512544668</v>
+      </c>
       <c r="F283" t="inlineStr"/>
       <c r="G283" t="inlineStr"/>
       <c r="H283" t="inlineStr"/>
@@ -11519,9 +11539,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
-      <c r="D284" t="inlineStr"/>
-      <c r="E284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>315, 183</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>256, 188</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>1.006944922903088</v>
+      </c>
       <c r="F284" t="inlineStr"/>
       <c r="G284" t="inlineStr"/>
       <c r="H284" t="inlineStr"/>
@@ -11548,9 +11578,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr"/>
-      <c r="D285" t="inlineStr"/>
-      <c r="E285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>313, 176</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>253, 184</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>1.020922543227275</v>
+      </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr"/>
@@ -11577,9 +11617,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr"/>
-      <c r="D286" t="inlineStr"/>
-      <c r="E286" t="inlineStr"/>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>306, 180</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>259, 188</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1.018806438947782</v>
+      </c>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr"/>
@@ -11606,9 +11656,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr"/>
-      <c r="D287" t="inlineStr"/>
-      <c r="E287" t="inlineStr"/>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>326, 179</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>247, 181</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0.9512080387826837</v>
+      </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr"/>
@@ -11635,9 +11695,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr"/>
-      <c r="D288" t="inlineStr"/>
-      <c r="E288" t="inlineStr"/>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>323, 180</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>253, 190</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0.9776201670850433</v>
+      </c>
       <c r="F288" t="inlineStr"/>
       <c r="G288" t="inlineStr"/>
       <c r="H288" t="inlineStr"/>
@@ -11664,9 +11734,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr"/>
-      <c r="D289" t="inlineStr"/>
-      <c r="E289" t="inlineStr"/>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>319, 177</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>250, 189</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0.9856736167857237</v>
+      </c>
       <c r="F289" t="inlineStr"/>
       <c r="G289" t="inlineStr"/>
       <c r="H289" t="inlineStr"/>
@@ -11693,9 +11773,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr"/>
-      <c r="D290" t="inlineStr"/>
-      <c r="E290" t="inlineStr"/>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>310, 179</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>248, 184</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>1.016031093778627</v>
+      </c>
       <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr"/>
@@ -11722,9 +11812,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr"/>
-      <c r="D291" t="inlineStr"/>
-      <c r="E291" t="inlineStr"/>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>308, 176</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>247, 187</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>1.037520973431452</v>
+      </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr"/>
@@ -11751,9 +11851,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>393, 187</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>280, 181</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0.8968369215228235</v>
+      </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr"/>
@@ -11780,9 +11890,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>380, 194</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>290, 184</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0.9614897335080821</v>
+      </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr"/>
@@ -11809,9 +11929,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>389, 198</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>292, 190</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0.9846647564469914</v>
+      </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr"/>
@@ -11838,9 +11968,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
-      <c r="D295" t="inlineStr"/>
-      <c r="E295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>389, 192</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>287, 176</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0.9063054485653699</v>
+      </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr"/>
@@ -11867,9 +12007,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
-      <c r="D296" t="inlineStr"/>
-      <c r="E296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>403, 190</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>293, 181</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0.8366176156963104</v>
+      </c>
       <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr"/>
@@ -11896,9 +12046,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C297" t="inlineStr"/>
-      <c r="D297" t="inlineStr"/>
-      <c r="E297" t="inlineStr"/>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>393, 188</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>297, 193</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0.9805663133971847</v>
+      </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr"/>
@@ -11925,9 +12085,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C298" t="inlineStr"/>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>391, 194</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>297, 192</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0.8687923309367511</v>
+      </c>
       <c r="F298" t="inlineStr"/>
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr"/>
@@ -11954,9 +12124,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C299" t="inlineStr"/>
-      <c r="D299" t="inlineStr"/>
-      <c r="E299" t="inlineStr"/>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>392, 199</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>299, 207</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0.8890975482524778</v>
+      </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr"/>
@@ -11983,9 +12163,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C300" t="inlineStr"/>
-      <c r="D300" t="inlineStr"/>
-      <c r="E300" t="inlineStr"/>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>388, 194</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>287, 189</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0.8734245889324763</v>
+      </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr"/>
@@ -12012,9 +12202,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C301" t="inlineStr"/>
-      <c r="D301" t="inlineStr"/>
-      <c r="E301" t="inlineStr"/>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>377, 199</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>274, 180</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0.9289309855971728</v>
+      </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr"/>
@@ -12041,9 +12241,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C302" t="inlineStr"/>
-      <c r="D302" t="inlineStr"/>
-      <c r="E302" t="inlineStr"/>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>368, 234</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>273, 230</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0.826098297937091</v>
+      </c>
       <c r="F302" t="inlineStr"/>
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr"/>
@@ -12070,9 +12280,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C303" t="inlineStr"/>
-      <c r="D303" t="inlineStr"/>
-      <c r="E303" t="inlineStr"/>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>373, 235</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>277, 226</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0.8809512771776922</v>
+      </c>
       <c r="F303" t="inlineStr"/>
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr"/>
@@ -12099,9 +12319,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr"/>
-      <c r="D304" t="inlineStr"/>
-      <c r="E304" t="inlineStr"/>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>383, 230</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>271, 223</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0.9631834871489532</v>
+      </c>
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr"/>
@@ -12128,9 +12358,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr"/>
-      <c r="D305" t="inlineStr"/>
-      <c r="E305" t="inlineStr"/>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>384, 226</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>265, 223</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0.8799614824557282</v>
+      </c>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr"/>
@@ -12157,9 +12397,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr"/>
-      <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr"/>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>390, 220</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>281, 230</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0.797304640799913</v>
+      </c>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr"/>
@@ -12186,9 +12436,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C307" t="inlineStr"/>
-      <c r="D307" t="inlineStr"/>
-      <c r="E307" t="inlineStr"/>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>380, 217</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>277, 229</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0.7431414625936211</v>
+      </c>
       <c r="F307" t="inlineStr"/>
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr"/>
@@ -12215,9 +12475,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C308" t="inlineStr"/>
-      <c r="D308" t="inlineStr"/>
-      <c r="E308" t="inlineStr"/>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>378, 217</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>278, 224</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0.8766816143497758</v>
+      </c>
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr"/>
@@ -12244,9 +12514,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C309" t="inlineStr"/>
-      <c r="D309" t="inlineStr"/>
-      <c r="E309" t="inlineStr"/>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>383, 220</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>279, 229</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0.7513858631177067</v>
+      </c>
       <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr"/>
@@ -12273,9 +12553,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr"/>
-      <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr"/>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>390, 222</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>282, 231</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0.7465621358194724</v>
+      </c>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr"/>
@@ -12302,9 +12592,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr"/>
-      <c r="E311" t="inlineStr"/>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>384, 225</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>287, 231</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0.840047637587889</v>
+      </c>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr"/>
@@ -12331,9 +12631,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr"/>
-      <c r="D312" t="inlineStr"/>
-      <c r="E312" t="inlineStr"/>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>380, 221</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>287, 218</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>1.056100450130301</v>
+      </c>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr"/>
@@ -12360,9 +12670,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr"/>
-      <c r="D313" t="inlineStr"/>
-      <c r="E313" t="inlineStr"/>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>380, 225</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>292, 224</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>1.097680989963948</v>
+      </c>
       <c r="F313" t="inlineStr"/>
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
@@ -12389,9 +12709,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C314" t="inlineStr"/>
-      <c r="D314" t="inlineStr"/>
-      <c r="E314" t="inlineStr"/>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>385, 227</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>283, 216</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>1.040511185061934</v>
+      </c>
       <c r="F314" t="inlineStr"/>
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr"/>
@@ -12418,9 +12748,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C315" t="inlineStr"/>
-      <c r="D315" t="inlineStr"/>
-      <c r="E315" t="inlineStr"/>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>379, 225</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>286, 213</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>1.069874274661509</v>
+      </c>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
       <c r="H315" t="inlineStr"/>
@@ -12447,9 +12787,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C316" t="inlineStr"/>
-      <c r="D316" t="inlineStr"/>
-      <c r="E316" t="inlineStr"/>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>388, 220</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>279, 218</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>1.069678890182383</v>
+      </c>
       <c r="F316" t="inlineStr"/>
       <c r="G316" t="inlineStr"/>
       <c r="H316" t="inlineStr"/>
@@ -12476,9 +12826,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C317" t="inlineStr"/>
-      <c r="D317" t="inlineStr"/>
-      <c r="E317" t="inlineStr"/>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>389, 220</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>291, 218</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>1.079603343389881</v>
+      </c>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr"/>
@@ -12505,9 +12865,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C318" t="inlineStr"/>
-      <c r="D318" t="inlineStr"/>
-      <c r="E318" t="inlineStr"/>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>389, 220</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>302, 223</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>1.104237910682169</v>
+      </c>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr"/>
@@ -12534,9 +12904,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C319" t="inlineStr"/>
-      <c r="D319" t="inlineStr"/>
-      <c r="E319" t="inlineStr"/>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>388, 229</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>292, 226</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>1.108932794263483</v>
+      </c>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr"/>
@@ -12563,9 +12943,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C320" t="inlineStr"/>
-      <c r="D320" t="inlineStr"/>
-      <c r="E320" t="inlineStr"/>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>388, 227</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>294, 225</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>1.128736167132071</v>
+      </c>
       <c r="F320" t="inlineStr"/>
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr"/>
@@ -12584,7 +12974,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>ROI_31_10</t>
+          <t>ROI_32_0</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -12592,9 +12982,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr"/>
-      <c r="D321" t="inlineStr"/>
-      <c r="E321" t="inlineStr"/>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>468, 185</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>350, 224</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0.8704185342998912</v>
+      </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr"/>
@@ -12613,7 +13013,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ROI_32_0</t>
+          <t>ROI_32_1</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -12621,9 +13021,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr"/>
-      <c r="D322" t="inlineStr"/>
-      <c r="E322" t="inlineStr"/>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>458, 201</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>350, 230</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0.8600955879730358</v>
+      </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr"/>
@@ -12642,7 +13052,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>ROI_32_1</t>
+          <t>ROI_32_2</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -12650,9 +13060,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr"/>
-      <c r="D323" t="inlineStr"/>
-      <c r="E323" t="inlineStr"/>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>439, 199</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>347, 229</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0.9097264493756111</v>
+      </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr"/>
@@ -12671,7 +13091,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ROI_32_2</t>
+          <t>ROI_32_3</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -12679,9 +13099,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr"/>
-      <c r="D324" t="inlineStr"/>
-      <c r="E324" t="inlineStr"/>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>441, 198</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>352, 234</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0.9169642039732673</v>
+      </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr"/>
@@ -12700,7 +13130,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ROI_32_3</t>
+          <t>ROI_32_4</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -12708,9 +13138,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr"/>
-      <c r="D325" t="inlineStr"/>
-      <c r="E325" t="inlineStr"/>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>429, 202</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>353, 235</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>0.9425809103418695</v>
+      </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr"/>
@@ -12729,7 +13169,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ROI_32_4</t>
+          <t>ROI_32_5</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -12737,9 +13177,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr"/>
-      <c r="D326" t="inlineStr"/>
-      <c r="E326" t="inlineStr"/>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>431, 189</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>350, 235</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0.9059064587973276</v>
+      </c>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr"/>
@@ -12758,7 +13208,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ROI_32_5</t>
+          <t>ROI_32_6</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -12766,9 +13216,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr"/>
-      <c r="D327" t="inlineStr"/>
-      <c r="E327" t="inlineStr"/>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>430, 187</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>350, 234</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0.9164815556607552</v>
+      </c>
       <c r="F327" t="inlineStr"/>
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr"/>
@@ -12787,7 +13247,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ROI_32_6</t>
+          <t>ROI_32_7</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -12795,9 +13255,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr"/>
-      <c r="D328" t="inlineStr"/>
-      <c r="E328" t="inlineStr"/>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>445, 193</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>347, 235</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0.8837953880889809</v>
+      </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr"/>
@@ -12816,7 +13286,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ROI_32_7</t>
+          <t>ROI_32_8</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -12824,9 +13294,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C329" t="inlineStr"/>
-      <c r="D329" t="inlineStr"/>
-      <c r="E329" t="inlineStr"/>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>431, 200</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>356, 234</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0.9067059033351169</v>
+      </c>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr"/>
@@ -12845,7 +13325,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>ROI_32_8</t>
+          <t>ROI_32_9</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -12853,9 +13333,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C330" t="inlineStr"/>
-      <c r="D330" t="inlineStr"/>
-      <c r="E330" t="inlineStr"/>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>435, 199</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>346, 233</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>0.9174965754692533</v>
+      </c>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr"/>
@@ -12874,7 +13364,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>ROI_32_9</t>
+          <t>ROI_33_0</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -12882,9 +13372,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C331" t="inlineStr"/>
-      <c r="D331" t="inlineStr"/>
-      <c r="E331" t="inlineStr"/>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>416, 201</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>313, 205</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>1.109064738787661</v>
+      </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr"/>
@@ -12903,7 +13403,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ROI_33_0</t>
+          <t>ROI_33_1</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -12911,9 +13411,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C332" t="inlineStr"/>
-      <c r="D332" t="inlineStr"/>
-      <c r="E332" t="inlineStr"/>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>415, 207</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>314, 206</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>1.147480793557743</v>
+      </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr"/>
@@ -12932,7 +13442,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>ROI_33_1</t>
+          <t>ROI_33_2</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -12940,9 +13450,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C333" t="inlineStr"/>
-      <c r="D333" t="inlineStr"/>
-      <c r="E333" t="inlineStr"/>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>416, 205</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>334, 217</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>1.026597388007302</v>
+      </c>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr"/>
@@ -12961,7 +13481,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>ROI_33_2</t>
+          <t>ROI_33_3</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -12969,9 +13489,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C334" t="inlineStr"/>
-      <c r="D334" t="inlineStr"/>
-      <c r="E334" t="inlineStr"/>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>409, 207</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>339, 223</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>1.1037893344253</v>
+      </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr"/>
@@ -12990,7 +13520,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ROI_33_3</t>
+          <t>ROI_33_4</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -12998,9 +13528,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C335" t="inlineStr"/>
-      <c r="D335" t="inlineStr"/>
-      <c r="E335" t="inlineStr"/>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>405, 202</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>326, 219</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>1.168828721299118</v>
+      </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr"/>
@@ -13019,7 +13559,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ROI_33_4</t>
+          <t>ROI_33_5</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -13027,9 +13567,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C336" t="inlineStr"/>
-      <c r="D336" t="inlineStr"/>
-      <c r="E336" t="inlineStr"/>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>403, 201</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>327, 217</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>1.163796841127284</v>
+      </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr"/>
@@ -13048,7 +13598,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>ROI_33_5</t>
+          <t>ROI_33_6</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -13056,9 +13606,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C337" t="inlineStr"/>
-      <c r="D337" t="inlineStr"/>
-      <c r="E337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>402, 199</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>322, 209</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>1.181506094296243</v>
+      </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr"/>
@@ -13077,7 +13637,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ROI_33_6</t>
+          <t>ROI_33_7</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -13085,9 +13645,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C338" t="inlineStr"/>
-      <c r="D338" t="inlineStr"/>
-      <c r="E338" t="inlineStr"/>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>391, 195</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>304, 206</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>1.150615104225994</v>
+      </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr"/>
@@ -13106,7 +13676,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>ROI_33_7</t>
+          <t>ROI_33_8</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -13114,9 +13684,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C339" t="inlineStr"/>
-      <c r="D339" t="inlineStr"/>
-      <c r="E339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>388, 192</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>320, 207</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>1.402672195346695</v>
+      </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr"/>
@@ -13135,7 +13715,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>ROI_33_8</t>
+          <t>ROI_33_9</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -13143,9 +13723,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C340" t="inlineStr"/>
-      <c r="D340" t="inlineStr"/>
-      <c r="E340" t="inlineStr"/>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>398, 202</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>323, 209</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>1.263416859461045</v>
+      </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
       <c r="H340" t="inlineStr"/>
@@ -13164,7 +13754,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>ROI_33_9</t>
+          <t>ROI_34_0</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -13172,9 +13762,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr"/>
-      <c r="D341" t="inlineStr"/>
-      <c r="E341" t="inlineStr"/>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>304, 206</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>220, 192</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>0.8982326843398233</v>
+      </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
       <c r="H341" t="inlineStr"/>
@@ -13193,7 +13793,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ROI_34_0</t>
+          <t>ROI_34_1</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -13201,9 +13801,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr"/>
-      <c r="D342" t="inlineStr"/>
-      <c r="E342" t="inlineStr"/>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>308, 205</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>223, 195</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>0.8947467026378897</v>
+      </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr"/>
@@ -13222,7 +13832,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ROI_34_1</t>
+          <t>ROI_34_2</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -13230,9 +13840,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr"/>
-      <c r="D343" t="inlineStr"/>
-      <c r="E343" t="inlineStr"/>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>316, 221</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>231, 199</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>0.8440880268556509</v>
+      </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr"/>
@@ -13251,7 +13871,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ROI_34_2</t>
+          <t>ROI_34_3</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -13259,9 +13879,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr"/>
-      <c r="D344" t="inlineStr"/>
-      <c r="E344" t="inlineStr"/>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>310, 212</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>245, 219</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>0.9682433000084013</v>
+      </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr"/>
@@ -13280,7 +13910,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>ROI_34_3</t>
+          <t>ROI_34_4</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -13288,9 +13918,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr"/>
-      <c r="D345" t="inlineStr"/>
-      <c r="E345" t="inlineStr"/>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>326, 218</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>247, 217</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>0.9291266477841429</v>
+      </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr"/>
@@ -13309,7 +13949,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ROI_34_4</t>
+          <t>ROI_34_5</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
@@ -13317,9 +13957,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr"/>
-      <c r="D346" t="inlineStr"/>
-      <c r="E346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>341, 218</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>252, 222</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>0.8960440808429199</v>
+      </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr"/>
@@ -13338,7 +13988,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>ROI_34_5</t>
+          <t>ROI_34_6</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -13346,9 +13996,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr"/>
-      <c r="E347" t="inlineStr"/>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>333, 221</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>256, 224</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>0.963458401305057</v>
+      </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr"/>
@@ -13367,7 +14027,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ROI_34_6</t>
+          <t>ROI_34_7</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -13375,9 +14035,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C348" t="inlineStr"/>
-      <c r="D348" t="inlineStr"/>
-      <c r="E348" t="inlineStr"/>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>334, 224</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>252, 225</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>0.9527929200414911</v>
+      </c>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr"/>
@@ -13396,7 +14066,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>ROI_34_7</t>
+          <t>ROI_34_8</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -13404,9 +14074,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr"/>
-      <c r="D349" t="inlineStr"/>
-      <c r="E349" t="inlineStr"/>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>327, 223</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>247, 225</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>0.9538360941586748</v>
+      </c>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
       <c r="H349" t="inlineStr"/>
@@ -13425,7 +14105,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ROI_34_8</t>
+          <t>ROI_34_9</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -13433,9 +14113,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr"/>
-      <c r="D350" t="inlineStr"/>
-      <c r="E350" t="inlineStr"/>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>335, 217</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>253, 219</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>0.8495136290753608</v>
+      </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
       <c r="H350" t="inlineStr"/>
@@ -13454,7 +14144,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>ROI_34_9</t>
+          <t>ROI_35_0</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -13462,9 +14152,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr"/>
-      <c r="D351" t="inlineStr"/>
-      <c r="E351" t="inlineStr"/>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>335, 278</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>220, 255</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>1.134181577203446</v>
+      </c>
       <c r="F351" t="inlineStr"/>
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr"/>
@@ -13483,7 +14183,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>ROI_35_0</t>
+          <t>ROI_35_1</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -13491,9 +14191,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C352" t="inlineStr"/>
-      <c r="D352" t="inlineStr"/>
-      <c r="E352" t="inlineStr"/>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>336, 271</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>228, 255</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>1.154780482729921</v>
+      </c>
       <c r="F352" t="inlineStr"/>
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr"/>
@@ -13512,7 +14222,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ROI_35_1</t>
+          <t>ROI_35_2</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -13520,9 +14230,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C353" t="inlineStr"/>
-      <c r="D353" t="inlineStr"/>
-      <c r="E353" t="inlineStr"/>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>343, 268</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>227, 252</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>1.077423456910887</v>
+      </c>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr"/>
@@ -13541,7 +14261,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ROI_35_2</t>
+          <t>ROI_35_3</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -13549,9 +14269,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C354" t="inlineStr"/>
-      <c r="D354" t="inlineStr"/>
-      <c r="E354" t="inlineStr"/>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>338, 274</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>235, 270</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>1.160895304517071</v>
+      </c>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr"/>
@@ -13570,7 +14300,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>ROI_35_3</t>
+          <t>ROI_35_4</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
@@ -13578,9 +14308,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C355" t="inlineStr"/>
-      <c r="D355" t="inlineStr"/>
-      <c r="E355" t="inlineStr"/>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>326, 275</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>240, 271</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>1.031073009988673</v>
+      </c>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr"/>
@@ -13599,7 +14339,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ROI_35_4</t>
+          <t>ROI_35_5</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
@@ -13607,9 +14347,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C356" t="inlineStr"/>
-      <c r="D356" t="inlineStr"/>
-      <c r="E356" t="inlineStr"/>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>328, 275</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>234, 271</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>1.104417989417989</v>
+      </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr"/>
@@ -13628,7 +14378,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>ROI_35_5</t>
+          <t>ROI_35_6</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -13636,9 +14386,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C357" t="inlineStr"/>
-      <c r="D357" t="inlineStr"/>
-      <c r="E357" t="inlineStr"/>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>331, 271</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>236, 270</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>1.105843232951651</v>
+      </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr"/>
@@ -13657,7 +14417,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>ROI_35_6</t>
+          <t>ROI_35_7</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -13665,9 +14425,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C358" t="inlineStr"/>
-      <c r="D358" t="inlineStr"/>
-      <c r="E358" t="inlineStr"/>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>336, 259</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>229, 249</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>1.098497453093404</v>
+      </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr"/>
@@ -13686,7 +14456,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ROI_35_7</t>
+          <t>ROI_35_8</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -13694,9 +14464,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C359" t="inlineStr"/>
-      <c r="D359" t="inlineStr"/>
-      <c r="E359" t="inlineStr"/>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>331, 254</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>224, 246</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>1.166886342897699</v>
+      </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
       <c r="H359" t="inlineStr"/>
@@ -13715,7 +14495,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>ROI_35_8</t>
+          <t>ROI_35_9</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -13723,9 +14503,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C360" t="inlineStr"/>
-      <c r="D360" t="inlineStr"/>
-      <c r="E360" t="inlineStr"/>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>335, 244</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>221, 242</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>1.182368655387355</v>
+      </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
       <c r="H360" t="inlineStr"/>
@@ -13744,7 +14534,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ROI_35_9</t>
+          <t>ROI_36_0</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -13752,9 +14542,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C361" t="inlineStr"/>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>365, 242</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>270, 231</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>1.056187642219499</v>
+      </c>
       <c r="F361" t="inlineStr"/>
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr"/>
@@ -13773,7 +14573,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>ROI_36_0</t>
+          <t>ROI_36_1</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -13781,9 +14581,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C362" t="inlineStr"/>
-      <c r="D362" t="inlineStr"/>
-      <c r="E362" t="inlineStr"/>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>364, 237</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>269, 235</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>1.055405443840837</v>
+      </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr"/>
@@ -13802,7 +14612,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ROI_36_1</t>
+          <t>ROI_36_2</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -13810,9 +14620,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C363" t="inlineStr"/>
-      <c r="D363" t="inlineStr"/>
-      <c r="E363" t="inlineStr"/>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>358, 243</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>281, 243</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>1.167618417059781</v>
+      </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr"/>
@@ -13831,7 +14651,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>ROI_36_2</t>
+          <t>ROI_36_3</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -13839,9 +14659,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C364" t="inlineStr"/>
-      <c r="D364" t="inlineStr"/>
-      <c r="E364" t="inlineStr"/>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>364, 241</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>282, 243</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>1.102449050486336</v>
+      </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr"/>
@@ -13860,7 +14690,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>ROI_36_3</t>
+          <t>ROI_36_4</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -13868,9 +14698,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C365" t="inlineStr"/>
-      <c r="D365" t="inlineStr"/>
-      <c r="E365" t="inlineStr"/>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>356, 246</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>287, 246</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>1.236418685121107</v>
+      </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr"/>
@@ -13889,7 +14729,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>ROI_36_4</t>
+          <t>ROI_36_5</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -13897,9 +14737,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C366" t="inlineStr"/>
-      <c r="D366" t="inlineStr"/>
-      <c r="E366" t="inlineStr"/>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>359, 251</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>284, 243</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>1.131177076183939</v>
+      </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr"/>
@@ -13918,7 +14768,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>ROI_36_5</t>
+          <t>ROI_36_6</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -13926,9 +14776,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C367" t="inlineStr"/>
-      <c r="D367" t="inlineStr"/>
-      <c r="E367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>353, 245</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>283, 248</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>1.229213148891864</v>
+      </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
       <c r="H367" t="inlineStr"/>
@@ -13947,7 +14807,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>ROI_36_6</t>
+          <t>ROI_36_7</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -13955,9 +14815,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr"/>
-      <c r="E368" t="inlineStr"/>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>357, 251</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>289, 254</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>1.165474293989862</v>
+      </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
       <c r="H368" t="inlineStr"/>
@@ -13976,7 +14846,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>ROI_36_7</t>
+          <t>ROI_36_8</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -13984,9 +14854,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C369" t="inlineStr"/>
-      <c r="D369" t="inlineStr"/>
-      <c r="E369" t="inlineStr"/>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>354, 251</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>291, 251</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>1.133830859625184</v>
+      </c>
       <c r="F369" t="inlineStr"/>
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr"/>
@@ -14005,7 +14885,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ROI_36_8</t>
+          <t>ROI_36_9</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -14013,9 +14893,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C370" t="inlineStr"/>
-      <c r="D370" t="inlineStr"/>
-      <c r="E370" t="inlineStr"/>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>352, 254</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>291, 254</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>1.164667143879742</v>
+      </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr"/>
@@ -14034,7 +14924,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>ROI_36_9</t>
+          <t>ROI_37_0</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
@@ -14042,9 +14932,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C371" t="inlineStr"/>
-      <c r="D371" t="inlineStr"/>
-      <c r="E371" t="inlineStr"/>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>359, 266</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>276, 234</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>0.7926796880658634</v>
+      </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr"/>
@@ -14063,7 +14963,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ROI_37_0</t>
+          <t>ROI_37_1</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
@@ -14071,9 +14971,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C372" t="inlineStr"/>
-      <c r="D372" t="inlineStr"/>
-      <c r="E372" t="inlineStr"/>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>366, 269</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>273, 233</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>0.7598107165049472</v>
+      </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr"/>
@@ -14092,7 +15002,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ROI_37_1</t>
+          <t>ROI_37_2</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -14100,9 +15010,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C373" t="inlineStr"/>
-      <c r="D373" t="inlineStr"/>
-      <c r="E373" t="inlineStr"/>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>361, 254</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>267, 230</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>0.8568779583272336</v>
+      </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr"/>
@@ -14121,7 +15041,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ROI_37_2</t>
+          <t>ROI_37_3</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -14129,9 +15049,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C374" t="inlineStr"/>
-      <c r="D374" t="inlineStr"/>
-      <c r="E374" t="inlineStr"/>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>356, 247</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>262, 224</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>0.8756575454852564</v>
+      </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr"/>
@@ -14150,7 +15080,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>ROI_37_3</t>
+          <t>ROI_37_4</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -14158,9 +15088,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C375" t="inlineStr"/>
-      <c r="D375" t="inlineStr"/>
-      <c r="E375" t="inlineStr"/>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>351, 242</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>260, 226</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>0.8550644567219153</v>
+      </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr"/>
@@ -14179,7 +15119,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>ROI_37_4</t>
+          <t>ROI_37_5</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -14187,9 +15127,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C376" t="inlineStr"/>
-      <c r="D376" t="inlineStr"/>
-      <c r="E376" t="inlineStr"/>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>353, 242</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>262, 222</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>0.9077432063844832</v>
+      </c>
       <c r="F376" t="inlineStr"/>
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr"/>
@@ -14208,7 +15158,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>ROI_37_5</t>
+          <t>ROI_37_6</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -14216,9 +15166,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C377" t="inlineStr"/>
-      <c r="D377" t="inlineStr"/>
-      <c r="E377" t="inlineStr"/>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>348, 236</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>266, 224</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>0.9384526962866711</v>
+      </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr"/>
@@ -14237,7 +15197,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>ROI_37_6</t>
+          <t>ROI_37_7</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -14245,9 +15205,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C378" t="inlineStr"/>
-      <c r="D378" t="inlineStr"/>
-      <c r="E378" t="inlineStr"/>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>350, 232</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>268, 221</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>0.8754448398576512</v>
+      </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr"/>
@@ -14266,7 +15236,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>ROI_37_7</t>
+          <t>ROI_37_8</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -14274,9 +15244,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C379" t="inlineStr"/>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="inlineStr"/>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>343, 232</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>265, 222</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>0.9650815250407018</v>
+      </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr"/>
@@ -14295,7 +15275,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ROI_37_8</t>
+          <t>ROI_37_9</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -14303,9 +15283,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr"/>
-      <c r="D380" t="inlineStr"/>
-      <c r="E380" t="inlineStr"/>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>345, 229</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>265, 221</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>0.9393252267517194</v>
+      </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
       <c r="H380" t="inlineStr"/>
@@ -14324,7 +15314,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ROI_37_9</t>
+          <t>ROI_38_0</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -14332,9 +15322,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C381" t="inlineStr"/>
-      <c r="D381" t="inlineStr"/>
-      <c r="E381" t="inlineStr"/>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>354, 235</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>271, 222</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>0.8362771466420457</v>
+      </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
       <c r="H381" t="inlineStr"/>
@@ -14353,7 +15353,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>ROI_38_0</t>
+          <t>ROI_38_1</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -14361,9 +15361,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C382" t="inlineStr"/>
-      <c r="D382" t="inlineStr"/>
-      <c r="E382" t="inlineStr"/>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>364, 230</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>274, 217</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>0.8135923465113107</v>
+      </c>
       <c r="F382" t="inlineStr"/>
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr"/>
@@ -14382,7 +15392,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>ROI_38_1</t>
+          <t>ROI_38_2</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -14390,9 +15400,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C383" t="inlineStr"/>
-      <c r="D383" t="inlineStr"/>
-      <c r="E383" t="inlineStr"/>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>364, 229</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>279, 230</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>0.90530749789385</v>
+      </c>
       <c r="F383" t="inlineStr"/>
       <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr"/>
@@ -14411,7 +15431,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>ROI_38_2</t>
+          <t>ROI_38_3</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -14419,9 +15439,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C384" t="inlineStr"/>
-      <c r="D384" t="inlineStr"/>
-      <c r="E384" t="inlineStr"/>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>367, 220</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>285, 227</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>0.8645579886455799</v>
+      </c>
       <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr"/>
       <c r="H384" t="inlineStr"/>
@@ -14440,7 +15470,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ROI_38_3</t>
+          <t>ROI_38_4</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -14448,9 +15478,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr"/>
-      <c r="D385" t="inlineStr"/>
-      <c r="E385" t="inlineStr"/>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>369, 227</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>280, 223</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>0.7899065941725917</v>
+      </c>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr"/>
@@ -14469,7 +15509,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>ROI_38_4</t>
+          <t>ROI_38_5</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
@@ -14477,9 +15517,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C386" t="inlineStr"/>
-      <c r="D386" t="inlineStr"/>
-      <c r="E386" t="inlineStr"/>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>367, 219</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>278, 218</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>0.8313810731393149</v>
+      </c>
       <c r="F386" t="inlineStr"/>
       <c r="G386" t="inlineStr"/>
       <c r="H386" t="inlineStr"/>
@@ -14498,7 +15548,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ROI_38_5</t>
+          <t>ROI_38_6</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -14506,9 +15556,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr"/>
-      <c r="D387" t="inlineStr"/>
-      <c r="E387" t="inlineStr"/>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>357, 205</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>276, 218</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>0.8866414493330679</v>
+      </c>
       <c r="F387" t="inlineStr"/>
       <c r="G387" t="inlineStr"/>
       <c r="H387" t="inlineStr"/>
@@ -14527,7 +15587,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>ROI_38_6</t>
+          <t>ROI_38_7</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -14535,9 +15595,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr"/>
-      <c r="D388" t="inlineStr"/>
-      <c r="E388" t="inlineStr"/>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>353, 198</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>270, 214</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>0.8838267065913656</v>
+      </c>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr"/>
@@ -14556,7 +15626,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ROI_38_7</t>
+          <t>ROI_38_8</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -14564,9 +15634,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr"/>
-      <c r="D389" t="inlineStr"/>
-      <c r="E389" t="inlineStr"/>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>355, 204</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>274, 216</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>0.9055822067160924</v>
+      </c>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
       <c r="H389" t="inlineStr"/>
@@ -14585,7 +15665,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ROI_38_8</t>
+          <t>ROI_38_9</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -14593,9 +15673,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C390" t="inlineStr"/>
-      <c r="D390" t="inlineStr"/>
-      <c r="E390" t="inlineStr"/>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>359, 202</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>269, 218</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>0.827913409269895</v>
+      </c>
       <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr"/>
       <c r="H390" t="inlineStr"/>
@@ -14614,7 +15704,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>ROI_38_9</t>
+          <t>ROI_39_0</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -14622,9 +15712,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr"/>
-      <c r="D391" t="inlineStr"/>
-      <c r="E391" t="inlineStr"/>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>171, 152</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>253, 182</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>1.239383769785693</v>
+      </c>
       <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr"/>
@@ -14643,7 +15743,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>ROI_39_0</t>
+          <t>ROI_39_1</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -14651,9 +15751,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr"/>
-      <c r="D392" t="inlineStr"/>
-      <c r="E392" t="inlineStr"/>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>180, 146</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>247, 186</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>1.299907554825125</v>
+      </c>
       <c r="F392" t="inlineStr"/>
       <c r="G392" t="inlineStr"/>
       <c r="H392" t="inlineStr"/>
@@ -14672,7 +15782,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>ROI_39_1</t>
+          <t>ROI_39_2</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -14680,9 +15790,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr"/>
-      <c r="D393" t="inlineStr"/>
-      <c r="E393" t="inlineStr"/>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>188, 148</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>230, 194</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>1.356341628841238</v>
+      </c>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr"/>
@@ -14701,7 +15821,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ROI_39_2</t>
+          <t>ROI_39_3</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -14709,9 +15829,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr"/>
-      <c r="D394" t="inlineStr"/>
-      <c r="E394" t="inlineStr"/>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>145, 180</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>231, 189</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>1.130945187742771</v>
+      </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
       <c r="H394" t="inlineStr"/>
@@ -14730,7 +15860,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ROI_39_3</t>
+          <t>ROI_39_4</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -14738,9 +15868,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr"/>
-      <c r="D395" t="inlineStr"/>
-      <c r="E395" t="inlineStr"/>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>147, 177</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>250, 185</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>0.9915863919034265</v>
+      </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr"/>
@@ -14759,7 +15899,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>ROI_39_4</t>
+          <t>ROI_39_5</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -14767,9 +15907,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C396" t="inlineStr"/>
-      <c r="D396" t="inlineStr"/>
-      <c r="E396" t="inlineStr"/>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>147, 173</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>243, 186</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>1.037450569899977</v>
+      </c>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
       <c r="H396" t="inlineStr"/>
@@ -14788,7 +15938,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>ROI_39_5</t>
+          <t>ROI_39_6</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -14796,9 +15946,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C397" t="inlineStr"/>
-      <c r="D397" t="inlineStr"/>
-      <c r="E397" t="inlineStr"/>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>151, 176</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>254, 185</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>1.049216945452699</v>
+      </c>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr"/>
@@ -14817,7 +15977,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>ROI_39_6</t>
+          <t>ROI_39_7</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -14825,9 +15985,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr"/>
-      <c r="D398" t="inlineStr"/>
-      <c r="E398" t="inlineStr"/>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>153, 179</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>261, 184</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>1.032827329255092</v>
+      </c>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr"/>
@@ -14846,7 +16016,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ROI_39_7</t>
+          <t>ROI_39_8</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -14854,9 +16024,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C399" t="inlineStr"/>
-      <c r="D399" t="inlineStr"/>
-      <c r="E399" t="inlineStr"/>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>157, 175</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>245, 186</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>1.076034032084465</v>
+      </c>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
       <c r="H399" t="inlineStr"/>
@@ -14875,7 +16055,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>ROI_39_8</t>
+          <t>ROI_39_9</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -14883,9 +16063,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C400" t="inlineStr"/>
-      <c r="D400" t="inlineStr"/>
-      <c r="E400" t="inlineStr"/>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>161, 177</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>241, 186</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>1.168014399699111</v>
+      </c>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
       <c r="H400" t="inlineStr"/>
@@ -14904,7 +16094,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ROI_39_9</t>
+          <t>ROI_40_0</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -14912,9 +16102,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C401" t="inlineStr"/>
-      <c r="D401" t="inlineStr"/>
-      <c r="E401" t="inlineStr"/>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>318, 235</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>232, 226</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>1.106481896732143</v>
+      </c>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
       <c r="H401" t="inlineStr"/>
@@ -14933,7 +16133,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>ROI_40_0</t>
+          <t>ROI_40_1</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -14941,9 +16141,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C402" t="inlineStr"/>
-      <c r="D402" t="inlineStr"/>
-      <c r="E402" t="inlineStr"/>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>314, 237</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>236, 225</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>1.096236790229587</v>
+      </c>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
       <c r="H402" t="inlineStr"/>
@@ -14962,7 +16172,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ROI_40_1</t>
+          <t>ROI_40_2</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -14970,9 +16180,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C403" t="inlineStr"/>
-      <c r="D403" t="inlineStr"/>
-      <c r="E403" t="inlineStr"/>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>315, 237</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>232, 222</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>1.089034183158541</v>
+      </c>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
       <c r="H403" t="inlineStr"/>
@@ -14991,7 +16211,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>ROI_40_2</t>
+          <t>ROI_40_3</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -14999,9 +16219,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C404" t="inlineStr"/>
-      <c r="D404" t="inlineStr"/>
-      <c r="E404" t="inlineStr"/>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>320, 237</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>244, 233</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>1.125879510795712</v>
+      </c>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
       <c r="H404" t="inlineStr"/>
@@ -15020,7 +16250,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ROI_40_3</t>
+          <t>ROI_40_4</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -15028,9 +16258,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C405" t="inlineStr"/>
-      <c r="D405" t="inlineStr"/>
-      <c r="E405" t="inlineStr"/>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>318, 236</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>245, 230</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>1.195979978346488</v>
+      </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
       <c r="H405" t="inlineStr"/>
@@ -15049,7 +16289,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ROI_40_4</t>
+          <t>ROI_40_5</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -15057,9 +16297,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C406" t="inlineStr"/>
-      <c r="D406" t="inlineStr"/>
-      <c r="E406" t="inlineStr"/>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>342, 235</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>244, 232</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>1.149537559903544</v>
+      </c>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
       <c r="H406" t="inlineStr"/>
@@ -15078,7 +16328,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ROI_40_5</t>
+          <t>ROI_40_6</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -15086,9 +16336,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C407" t="inlineStr"/>
-      <c r="D407" t="inlineStr"/>
-      <c r="E407" t="inlineStr"/>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>339, 234</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>246, 236</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>1.05895648345197</v>
+      </c>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr"/>
@@ -15107,7 +16367,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ROI_40_6</t>
+          <t>ROI_40_7</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -15115,9 +16375,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C408" t="inlineStr"/>
-      <c r="D408" t="inlineStr"/>
-      <c r="E408" t="inlineStr"/>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>334, 234</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>250, 234</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>1.14201318227379</v>
+      </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
       <c r="H408" t="inlineStr"/>
@@ -15136,7 +16406,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ROI_40_7</t>
+          <t>ROI_40_8</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -15144,9 +16414,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C409" t="inlineStr"/>
-      <c r="D409" t="inlineStr"/>
-      <c r="E409" t="inlineStr"/>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>323, 227</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>234, 217</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>1.192150386615838</v>
+      </c>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr"/>
@@ -15165,7 +16445,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>ROI_40_8</t>
+          <t>ROI_40_9</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -15173,9 +16453,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C410" t="inlineStr"/>
-      <c r="D410" t="inlineStr"/>
-      <c r="E410" t="inlineStr"/>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>323, 243</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>236, 220</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>1.136310362732735</v>
+      </c>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
       <c r="H410" t="inlineStr"/>
@@ -15194,7 +16484,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>ROI_40_9</t>
+          <t>ROI_41_0</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -15202,9 +16492,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C411" t="inlineStr"/>
-      <c r="D411" t="inlineStr"/>
-      <c r="E411" t="inlineStr"/>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>321, 256</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>246, 252</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>1.212345731281357</v>
+      </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr"/>
@@ -15223,7 +16523,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>ROI_41_0</t>
+          <t>ROI_41_1</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -15231,9 +16531,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C412" t="inlineStr"/>
-      <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>323, 272</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>253, 272</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>1.189484850493933</v>
+      </c>
       <c r="F412" t="inlineStr"/>
       <c r="G412" t="inlineStr"/>
       <c r="H412" t="inlineStr"/>
@@ -15252,7 +16562,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>ROI_41_1</t>
+          <t>ROI_41_2</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -15260,9 +16570,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C413" t="inlineStr"/>
-      <c r="D413" t="inlineStr"/>
-      <c r="E413" t="inlineStr"/>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>320, 264</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>253, 266</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>1.211914767180271</v>
+      </c>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr"/>
@@ -15281,7 +16601,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ROI_41_2</t>
+          <t>ROI_41_3</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -15289,9 +16609,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr"/>
-      <c r="D414" t="inlineStr"/>
-      <c r="E414" t="inlineStr"/>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>331, 274</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>265, 273</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>1.172880116959064</v>
+      </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr"/>
       <c r="H414" t="inlineStr"/>
@@ -15310,7 +16640,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>ROI_41_3</t>
+          <t>ROI_41_4</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -15318,9 +16648,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr"/>
-      <c r="D415" t="inlineStr"/>
-      <c r="E415" t="inlineStr"/>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>336, 275</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>262, 278</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>1.160810926896315</v>
+      </c>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr"/>
       <c r="H415" t="inlineStr"/>
@@ -15339,7 +16679,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>ROI_41_4</t>
+          <t>ROI_41_5</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -15347,9 +16687,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr"/>
-      <c r="D416" t="inlineStr"/>
-      <c r="E416" t="inlineStr"/>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>342, 276</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>264, 279</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>1.164158245538594</v>
+      </c>
       <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr"/>
@@ -15368,7 +16718,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>ROI_41_5</t>
+          <t>ROI_41_6</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -15376,9 +16726,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr"/>
-      <c r="D417" t="inlineStr"/>
-      <c r="E417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>336, 270</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>269, 279</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>1.153163745190252</v>
+      </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
       <c r="H417" t="inlineStr"/>
@@ -15397,7 +16757,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>ROI_41_6</t>
+          <t>ROI_41_7</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -15405,9 +16765,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr"/>
-      <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>341, 288</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>272, 289</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>1.098940080348748</v>
+      </c>
       <c r="F418" t="inlineStr"/>
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr"/>
@@ -15426,7 +16796,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>ROI_41_7</t>
+          <t>ROI_41_8</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -15434,9 +16804,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr"/>
-      <c r="E419" t="inlineStr"/>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>339, 278</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>273, 279</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>1.077305652434117</v>
+      </c>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr"/>
       <c r="H419" t="inlineStr"/>
@@ -15455,7 +16835,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ROI_41_8</t>
+          <t>ROI_41_9</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -15463,9 +16843,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C420" t="inlineStr"/>
-      <c r="D420" t="inlineStr"/>
-      <c r="E420" t="inlineStr"/>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>341, 282</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>273, 282</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>1.086361728913135</v>
+      </c>
       <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr"/>
       <c r="H420" t="inlineStr"/>
@@ -15484,7 +16874,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ROI_41_9</t>
+          <t>ROI_42_0</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -15492,9 +16882,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C421" t="inlineStr"/>
-      <c r="D421" t="inlineStr"/>
-      <c r="E421" t="inlineStr"/>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>345, 234</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>266, 221</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>1.106663508605716</v>
+      </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr"/>
       <c r="H421" t="inlineStr"/>
@@ -15513,7 +16913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>ROI_42_0</t>
+          <t>ROI_42_1</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -15521,9 +16921,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C422" t="inlineStr"/>
-      <c r="D422" t="inlineStr"/>
-      <c r="E422" t="inlineStr"/>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>348, 237</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>268, 234</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>1.056322258098115</v>
+      </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr"/>
       <c r="H422" t="inlineStr"/>
@@ -15542,7 +16952,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ROI_42_1</t>
+          <t>ROI_42_2</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -15550,9 +16960,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C423" t="inlineStr"/>
-      <c r="D423" t="inlineStr"/>
-      <c r="E423" t="inlineStr"/>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>352, 235</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>276, 235</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>1.030996141348497</v>
+      </c>
       <c r="F423" t="inlineStr"/>
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr"/>
@@ -15571,7 +16991,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>ROI_42_2</t>
+          <t>ROI_42_3</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -15579,9 +16999,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C424" t="inlineStr"/>
-      <c r="D424" t="inlineStr"/>
-      <c r="E424" t="inlineStr"/>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>353, 238</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>279, 244</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>1.20039869317238</v>
+      </c>
       <c r="F424" t="inlineStr"/>
       <c r="G424" t="inlineStr"/>
       <c r="H424" t="inlineStr"/>
@@ -15600,7 +17030,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>ROI_42_3</t>
+          <t>ROI_42_4</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -15608,9 +17038,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C425" t="inlineStr"/>
-      <c r="D425" t="inlineStr"/>
-      <c r="E425" t="inlineStr"/>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>342, 226</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>273, 234</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>1.224871472038611</v>
+      </c>
       <c r="F425" t="inlineStr"/>
       <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr"/>
@@ -15629,7 +17069,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>ROI_42_4</t>
+          <t>ROI_42_5</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -15637,9 +17077,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C426" t="inlineStr"/>
-      <c r="D426" t="inlineStr"/>
-      <c r="E426" t="inlineStr"/>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>357, 233</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>271, 236</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>1.166115029842648</v>
+      </c>
       <c r="F426" t="inlineStr"/>
       <c r="G426" t="inlineStr"/>
       <c r="H426" t="inlineStr"/>
@@ -15658,7 +17108,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ROI_42_5</t>
+          <t>ROI_42_6</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -15666,9 +17116,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C427" t="inlineStr"/>
-      <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>357, 219</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>271, 224</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>1.140710041444051</v>
+      </c>
       <c r="F427" t="inlineStr"/>
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr"/>
@@ -15687,7 +17147,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>ROI_42_6</t>
+          <t>ROI_42_7</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -15695,9 +17155,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C428" t="inlineStr"/>
-      <c r="D428" t="inlineStr"/>
-      <c r="E428" t="inlineStr"/>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>356, 227</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>278, 236</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>1.207513612608422</v>
+      </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr"/>
@@ -15716,7 +17186,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>ROI_42_7</t>
+          <t>ROI_42_8</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -15724,9 +17194,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C429" t="inlineStr"/>
-      <c r="D429" t="inlineStr"/>
-      <c r="E429" t="inlineStr"/>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>352, 216</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>280, 239</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>1.267915625867333</v>
+      </c>
       <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr"/>
@@ -15745,7 +17225,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>ROI_42_8</t>
+          <t>ROI_42_9</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -15753,9 +17233,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C430" t="inlineStr"/>
-      <c r="D430" t="inlineStr"/>
-      <c r="E430" t="inlineStr"/>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>353, 222</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>268, 231</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>1.21681780708986</v>
+      </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr"/>
       <c r="H430" t="inlineStr"/>
@@ -15774,7 +17264,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>ROI_42_9</t>
+          <t>ROI_43_0</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -15782,9 +17272,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C431" t="inlineStr"/>
-      <c r="D431" t="inlineStr"/>
-      <c r="E431" t="inlineStr"/>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>150, 161</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>250, 209</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>1.525291828793774</v>
+      </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr"/>
       <c r="H431" t="inlineStr"/>
@@ -15803,7 +17303,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ROI_43_0</t>
+          <t>ROI_43_1</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -15811,9 +17311,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C432" t="inlineStr"/>
-      <c r="D432" t="inlineStr"/>
-      <c r="E432" t="inlineStr"/>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>138, 179</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>246, 209</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>1.432047667606422</v>
+      </c>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr"/>
@@ -15832,7 +17342,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>ROI_43_1</t>
+          <t>ROI_43_2</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -15840,9 +17350,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr"/>
-      <c r="D433" t="inlineStr"/>
-      <c r="E433" t="inlineStr"/>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>107, 205</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>197, 205</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>1.312683019585473</v>
+      </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr"/>
       <c r="H433" t="inlineStr"/>
@@ -15861,7 +17381,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>ROI_43_2</t>
+          <t>ROI_43_3</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -15869,9 +17389,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr"/>
-      <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr"/>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>117, 202</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>215, 208</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>1.37534473248759</v>
+      </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
       <c r="H434" t="inlineStr"/>
@@ -15890,7 +17420,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>ROI_43_3</t>
+          <t>ROI_43_4</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -15898,9 +17428,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr"/>
-      <c r="D435" t="inlineStr"/>
-      <c r="E435" t="inlineStr"/>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>133, 184</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>209, 208</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>1.383964629548108</v>
+      </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr"/>
@@ -15919,7 +17459,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>ROI_43_4</t>
+          <t>ROI_43_5</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -15927,9 +17467,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr"/>
-      <c r="D436" t="inlineStr"/>
-      <c r="E436" t="inlineStr"/>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>140, 168</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>192, 210</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>1.23117790473418</v>
+      </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr"/>
@@ -15948,7 +17498,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>ROI_43_5</t>
+          <t>ROI_43_6</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -15956,9 +17506,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C437" t="inlineStr"/>
-      <c r="D437" t="inlineStr"/>
-      <c r="E437" t="inlineStr"/>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>136, 165</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>190, 208</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>1.305520563171545</v>
+      </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr"/>
@@ -15977,7 +17537,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>ROI_43_6</t>
+          <t>ROI_43_7</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -15985,9 +17545,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C438" t="inlineStr"/>
-      <c r="D438" t="inlineStr"/>
-      <c r="E438" t="inlineStr"/>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>143, 167</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>191, 216</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>1.293963633737202</v>
+      </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
       <c r="H438" t="inlineStr"/>
@@ -16006,7 +17576,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ROI_43_7</t>
+          <t>ROI_43_8</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -16014,9 +17584,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C439" t="inlineStr"/>
-      <c r="D439" t="inlineStr"/>
-      <c r="E439" t="inlineStr"/>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>144, 176</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>183, 220</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>1.310617186660458</v>
+      </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr"/>
@@ -16035,7 +17615,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>ROI_43_8</t>
+          <t>ROI_43_9</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -16043,9 +17623,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C440" t="inlineStr"/>
-      <c r="D440" t="inlineStr"/>
-      <c r="E440" t="inlineStr"/>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>141, 160</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>185, 211</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>1.31596833152703</v>
+      </c>
       <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr"/>
@@ -16064,7 +17654,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>ROI_43_9</t>
+          <t>ROI_44_0</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -16072,9 +17662,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C441" t="inlineStr"/>
-      <c r="D441" t="inlineStr"/>
-      <c r="E441" t="inlineStr"/>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>356, 238</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>282, 238</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>1.017881485045305</v>
+      </c>
       <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr"/>
@@ -16093,7 +17693,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>ROI_44_0</t>
+          <t>ROI_44_1</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -16101,9 +17701,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C442" t="inlineStr"/>
-      <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr"/>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>340, 234</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>281, 237</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>0.9502757067412241</v>
+      </c>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr"/>
@@ -16122,7 +17732,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>ROI_44_1</t>
+          <t>ROI_44_2</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -16130,9 +17740,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C443" t="inlineStr"/>
-      <c r="D443" t="inlineStr"/>
-      <c r="E443" t="inlineStr"/>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>343, 226</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>282, 234</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>1.009061173076532</v>
+      </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr"/>
@@ -16151,7 +17771,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>ROI_44_2</t>
+          <t>ROI_44_3</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
@@ -16159,9 +17779,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C444" t="inlineStr"/>
-      <c r="D444" t="inlineStr"/>
-      <c r="E444" t="inlineStr"/>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>343, 217</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>272, 222</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>0.9539841137931702</v>
+      </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr"/>
@@ -16180,7 +17810,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ROI_44_3</t>
+          <t>ROI_44_4</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -16188,9 +17818,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C445" t="inlineStr"/>
-      <c r="D445" t="inlineStr"/>
-      <c r="E445" t="inlineStr"/>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>352, 222</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>281, 230</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>0.9800999980080076</v>
+      </c>
       <c r="F445" t="inlineStr"/>
       <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr"/>
@@ -16209,7 +17849,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>ROI_44_4</t>
+          <t>ROI_44_5</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -16217,9 +17857,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C446" t="inlineStr"/>
-      <c r="D446" t="inlineStr"/>
-      <c r="E446" t="inlineStr"/>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>356, 227</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>283, 230</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>0.9370193428105336</v>
+      </c>
       <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr"/>
       <c r="H446" t="inlineStr"/>
@@ -16238,7 +17888,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>ROI_44_5</t>
+          <t>ROI_44_6</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
@@ -16246,9 +17896,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C447" t="inlineStr"/>
-      <c r="D447" t="inlineStr"/>
-      <c r="E447" t="inlineStr"/>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>358, 232</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>283, 229</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>0.9449760765550239</v>
+      </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr"/>
@@ -16267,7 +17927,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>ROI_44_6</t>
+          <t>ROI_44_7</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
@@ -16275,9 +17935,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C448" t="inlineStr"/>
-      <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr"/>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>358, 232</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>280, 224</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>0.9319007263922519</v>
+      </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr"/>
@@ -16296,7 +17966,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>ROI_44_7</t>
+          <t>ROI_44_8</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -16304,9 +17974,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C449" t="inlineStr"/>
-      <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr"/>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>366, 226</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>285, 226</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>0.883171868066854</v>
+      </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr"/>
@@ -16325,7 +18005,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ROI_44_8</t>
+          <t>ROI_44_9</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -16333,9 +18013,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C450" t="inlineStr"/>
-      <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr"/>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>359, 222</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>286, 221</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>0.9650334640675916</v>
+      </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr"/>
@@ -16354,7 +18044,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ROI_44_9</t>
+          <t>ROI_45_0</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -16362,9 +18052,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C451" t="inlineStr"/>
-      <c r="D451" t="inlineStr"/>
-      <c r="E451" t="inlineStr"/>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>377, 249</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>292, 209</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>0.9413619641114197</v>
+      </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr"/>
@@ -16383,7 +18083,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>ROI_45_0</t>
+          <t>ROI_45_1</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -16391,9 +18091,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C452" t="inlineStr"/>
-      <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr"/>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>370, 257</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>287, 207</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>0.9975460737179487</v>
+      </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr"/>
@@ -16412,7 +18122,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ROI_45_1</t>
+          <t>ROI_45_2</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -16420,9 +18130,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C453" t="inlineStr"/>
-      <c r="D453" t="inlineStr"/>
-      <c r="E453" t="inlineStr"/>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>372, 269</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>311, 233</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>1.142177290099865</v>
+      </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr"/>
@@ -16441,7 +18161,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>ROI_45_2</t>
+          <t>ROI_45_3</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
@@ -16449,9 +18169,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C454" t="inlineStr"/>
-      <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr"/>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>371, 267</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>305, 235</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>1.100727074883767</v>
+      </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr"/>
@@ -16470,7 +18200,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>ROI_45_3</t>
+          <t>ROI_45_4</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
@@ -16478,9 +18208,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C455" t="inlineStr"/>
-      <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr"/>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>378, 275</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>311, 226</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>1.12375642812515</v>
+      </c>
       <c r="F455" t="inlineStr"/>
       <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr"/>
@@ -16499,7 +18239,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>ROI_45_4</t>
+          <t>ROI_45_5</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
@@ -16507,9 +18247,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C456" t="inlineStr"/>
-      <c r="D456" t="inlineStr"/>
-      <c r="E456" t="inlineStr"/>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>376, 276</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>315, 243</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>1.171715104379861</v>
+      </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr"/>
@@ -16528,7 +18278,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>ROI_45_5</t>
+          <t>ROI_45_6</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -16536,9 +18286,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr"/>
-      <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr"/>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>380, 289</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>313, 250</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>1.369294152956263</v>
+      </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr"/>
@@ -16557,7 +18317,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>ROI_45_6</t>
+          <t>ROI_45_7</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -16565,9 +18325,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr"/>
-      <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr"/>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>372, 274</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>308, 233</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>1.14539690281673</v>
+      </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr"/>
@@ -16586,7 +18356,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>ROI_45_7</t>
+          <t>ROI_45_8</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -16594,9 +18364,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr"/>
-      <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr"/>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>368, 280</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>307, 235</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>1.162652696394875</v>
+      </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr"/>
@@ -16615,7 +18395,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>ROI_45_8</t>
+          <t>ROI_45_9</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -16623,9 +18403,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr"/>
-      <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr"/>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>369, 284</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>309, 237</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>1.175155456401006</v>
+      </c>
       <c r="F460" t="inlineStr"/>
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr"/>
@@ -16644,7 +18434,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ROI_45_9</t>
+          <t>ROI_46_0</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -16652,9 +18442,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr"/>
-      <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr"/>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>333, 276</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>256, 225</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>0.7977771753862836</v>
+      </c>
       <c r="F461" t="inlineStr"/>
       <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr"/>
@@ -16673,7 +18473,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ROI_46_0</t>
+          <t>ROI_46_1</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -16681,9 +18481,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr"/>
-      <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>339, 278</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>235, 207</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>0.6814596122904855</v>
+      </c>
       <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr"/>
@@ -16702,7 +18512,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>ROI_46_1</t>
+          <t>ROI_46_2</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -16710,9 +18520,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C463" t="inlineStr"/>
-      <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>358, 308</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>273, 278</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>0.7837387020442996</v>
+      </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr"/>
@@ -16731,7 +18551,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>ROI_46_2</t>
+          <t>ROI_46_3</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -16739,9 +18559,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C464" t="inlineStr"/>
-      <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>346, 267</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>260, 233</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>0.77558213143082</v>
+      </c>
       <c r="F464" t="inlineStr"/>
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr"/>
@@ -16760,7 +18590,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>ROI_46_3</t>
+          <t>ROI_46_4</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -16768,9 +18598,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C465" t="inlineStr"/>
-      <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>339, 251</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>246, 225</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>0.8695004877047076</v>
+      </c>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr"/>
@@ -16789,7 +18629,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>ROI_46_4</t>
+          <t>ROI_46_5</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -16797,9 +18637,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C466" t="inlineStr"/>
-      <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>336, 248</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>241, 229</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>0.8355325940307348</v>
+      </c>
       <c r="F466" t="inlineStr"/>
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr"/>
@@ -16818,7 +18668,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ROI_46_5</t>
+          <t>ROI_46_6</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -16826,9 +18676,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C467" t="inlineStr"/>
-      <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>332, 249</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>246, 227</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>0.9027643064985452</v>
+      </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr"/>
@@ -16847,7 +18707,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>ROI_46_6</t>
+          <t>ROI_46_7</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -16855,9 +18715,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr"/>
-      <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr"/>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>334, 247</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>240, 222</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>0.936128540858148</v>
+      </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr"/>
@@ -16876,7 +18746,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ROI_46_7</t>
+          <t>ROI_46_8</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -16884,9 +18754,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr"/>
-      <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr"/>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>328, 245</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>244, 236</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>0.9411703905321366</v>
+      </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr"/>
@@ -16905,7 +18785,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ROI_46_8</t>
+          <t>ROI_46_9</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -16913,9 +18793,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr"/>
-      <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr"/>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>331, 259</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>247, 247</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>0.8659032263504968</v>
+      </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr"/>
@@ -16934,7 +18824,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>ROI_46_9</t>
+          <t>ROI_47_0</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -16942,9 +18832,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr"/>
-      <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr"/>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>264, 233</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>175, 179</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>0.7967089652326421</v>
+      </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr"/>
@@ -16963,7 +18863,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>ROI_47_0</t>
+          <t>ROI_47_1</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -16971,9 +18871,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr"/>
-      <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr"/>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>295, 229</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>205, 200</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>0.9600077567946538</v>
+      </c>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr"/>
@@ -16992,7 +18902,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>ROI_47_1</t>
+          <t>ROI_47_2</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -17000,9 +18910,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr"/>
-      <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr"/>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>324, 227</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>216, 198</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>0.921780303030303</v>
+      </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr"/>
@@ -17021,7 +18941,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>ROI_47_2</t>
+          <t>ROI_47_3</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -17029,9 +18949,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr"/>
-      <c r="D474" t="inlineStr"/>
-      <c r="E474" t="inlineStr"/>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>330, 233</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>227, 213</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>0.9451314079725027</v>
+      </c>
       <c r="F474" t="inlineStr"/>
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr"/>
@@ -17050,7 +18980,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ROI_47_3</t>
+          <t>ROI_47_4</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -17058,9 +18988,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C475" t="inlineStr"/>
-      <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr"/>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>328, 219</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>244, 222</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>0.9910701236444419</v>
+      </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr"/>
@@ -17079,7 +19019,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>ROI_47_4</t>
+          <t>ROI_47_5</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -17087,9 +19027,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr"/>
-      <c r="D476" t="inlineStr"/>
-      <c r="E476" t="inlineStr"/>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>336, 247</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>246, 227</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>1.015850377144874</v>
+      </c>
       <c r="F476" t="inlineStr"/>
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr"/>
@@ -17108,7 +19058,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>ROI_47_5</t>
+          <t>ROI_47_6</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -17116,9 +19066,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr"/>
-      <c r="D477" t="inlineStr"/>
-      <c r="E477" t="inlineStr"/>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>355, 243</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>261, 231</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>0.9525103114777415</v>
+      </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr"/>
@@ -17137,7 +19097,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>ROI_47_6</t>
+          <t>ROI_47_7</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -17145,9 +19105,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr"/>
-      <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr"/>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>353, 255</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>250, 221</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>0.9247430808171621</v>
+      </c>
       <c r="F478" t="inlineStr"/>
       <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr"/>
@@ -17166,7 +19136,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>ROI_47_7</t>
+          <t>ROI_47_8</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -17174,9 +19144,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr"/>
-      <c r="D479" t="inlineStr"/>
-      <c r="E479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>360, 245</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>257, 214</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>0.9351062312847569</v>
+      </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr"/>
@@ -17195,7 +19175,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>ROI_47_8</t>
+          <t>ROI_47_9</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -17203,9 +19183,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C480" t="inlineStr"/>
-      <c r="D480" t="inlineStr"/>
-      <c r="E480" t="inlineStr"/>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>369, 244</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>267, 235</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>0.9780630556837983</v>
+      </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr"/>
@@ -17224,7 +19214,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>ROI_47_9</t>
+          <t>ROI_48_0</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -17232,9 +19222,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C481" t="inlineStr"/>
-      <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>375, 258</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>297, 244</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>0.9685420335526925</v>
+      </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr"/>
@@ -17253,7 +19253,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>ROI_48_0</t>
+          <t>ROI_48_1</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -17261,9 +19261,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C482" t="inlineStr"/>
-      <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr"/>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>372, 252</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>296, 242</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>1.044258259060633</v>
+      </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr"/>
@@ -17282,7 +19292,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>ROI_48_1</t>
+          <t>ROI_48_2</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -17290,9 +19300,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C483" t="inlineStr"/>
-      <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr"/>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>370, 252</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>291, 239</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>1.094964318021912</v>
+      </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr"/>
@@ -17311,7 +19331,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>ROI_48_2</t>
+          <t>ROI_48_3</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -17319,9 +19339,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C484" t="inlineStr"/>
-      <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>378, 264</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>301, 244</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>1.059908299501101</v>
+      </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
       <c r="H484" t="inlineStr"/>
@@ -17340,7 +19370,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>ROI_48_3</t>
+          <t>ROI_48_4</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -17348,9 +19378,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C485" t="inlineStr"/>
-      <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>379, 261</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>301, 248</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>1.095022153807751</v>
+      </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr"/>
@@ -17369,7 +19409,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>ROI_48_4</t>
+          <t>ROI_48_5</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -17377,9 +19417,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C486" t="inlineStr"/>
-      <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr"/>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>370, 255</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>301, 252</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>1.13024860235518</v>
+      </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr"/>
@@ -17398,7 +19448,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>ROI_48_5</t>
+          <t>ROI_48_6</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -17406,9 +19456,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C487" t="inlineStr"/>
-      <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr"/>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>375, 259</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>302, 255</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>0.9861779305078273</v>
+      </c>
       <c r="F487" t="inlineStr"/>
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr"/>
@@ -17427,7 +19487,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>ROI_48_6</t>
+          <t>ROI_48_7</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -17435,9 +19495,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C488" t="inlineStr"/>
-      <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>373, 260</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>309, 261</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>0.9730147785087312</v>
+      </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr"/>
@@ -17456,7 +19526,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>ROI_48_7</t>
+          <t>ROI_48_8</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -17464,9 +19534,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C489" t="inlineStr"/>
-      <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>372, 262</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>308, 258</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>1.005877118172717</v>
+      </c>
       <c r="F489" t="inlineStr"/>
       <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr"/>
@@ -17485,7 +19565,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>ROI_48_8</t>
+          <t>ROI_48_9</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -17493,9 +19573,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr"/>
-      <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>376, 270</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>305, 258</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>0.9432589808940897</v>
+      </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr"/>
@@ -17514,7 +19604,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>ROI_48_9</t>
+          <t>ROI_49_0</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -17522,9 +19612,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr"/>
-      <c r="D491" t="inlineStr"/>
-      <c r="E491" t="inlineStr"/>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>461, 190</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>348, 205</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>0.9566210873744153</v>
+      </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr"/>
@@ -17543,7 +19643,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>ROI_49_0</t>
+          <t>ROI_49_1</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -17551,9 +19651,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr"/>
-      <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>454, 206</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>364, 221</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>1.143501805054152</v>
+      </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="inlineStr"/>
@@ -17572,7 +19682,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>ROI_49_1</t>
+          <t>ROI_49_2</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -17580,9 +19690,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr"/>
-      <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>458, 202</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>368, 239</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>1.087006915736197</v>
+      </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr"/>
@@ -17601,7 +19721,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ROI_49_2</t>
+          <t>ROI_49_3</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -17609,9 +19729,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr"/>
-      <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>443, 197</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>360, 221</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>0.9741344119939138</v>
+      </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr"/>
@@ -17630,7 +19760,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>ROI_49_3</t>
+          <t>ROI_49_4</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -17638,9 +19768,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr"/>
-      <c r="D495" t="inlineStr"/>
-      <c r="E495" t="inlineStr"/>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>449, 207</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>363, 230</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>1.077327062512248</v>
+      </c>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr"/>
@@ -17659,7 +19799,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>ROI_49_4</t>
+          <t>ROI_49_5</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -17667,9 +19807,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr"/>
-      <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>443, 199</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>356, 219</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>1.053811833171678</v>
+      </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr"/>
@@ -17688,7 +19838,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>ROI_49_5</t>
+          <t>ROI_49_6</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -17696,9 +19846,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C497" t="inlineStr"/>
-      <c r="D497" t="inlineStr"/>
-      <c r="E497" t="inlineStr"/>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>442, 207</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>361, 226</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>0.9986156508363777</v>
+      </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr"/>
@@ -17717,7 +19877,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>ROI_49_6</t>
+          <t>ROI_49_7</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -17725,9 +19885,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C498" t="inlineStr"/>
-      <c r="D498" t="inlineStr"/>
-      <c r="E498" t="inlineStr"/>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>437, 202</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>355, 221</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>1.06600790513834</v>
+      </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr"/>
@@ -17746,7 +19916,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ROI_49_7</t>
+          <t>ROI_49_8</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -17754,9 +19924,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C499" t="inlineStr"/>
-      <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr"/>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>442, 210</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>347, 218</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>0.9978514078932488</v>
+      </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr"/>
@@ -17775,7 +19955,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>ROI_49_8</t>
+          <t>ROI_49_9</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -17783,9 +19963,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C500" t="inlineStr"/>
-      <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr"/>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>427, 193</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>350, 223</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>1.054352997145576</v>
+      </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr"/>
@@ -17804,7 +19994,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ROI_49_9</t>
+          <t>ROI_50_0</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -17812,9 +20002,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C501" t="inlineStr"/>
-      <c r="D501" t="inlineStr"/>
-      <c r="E501" t="inlineStr"/>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>408, 218</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>321, 219</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>0.6065872003041082</v>
+      </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr"/>
@@ -17833,7 +20033,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ROI_50_0</t>
+          <t>ROI_50_1</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -17841,9 +20041,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C502" t="inlineStr"/>
-      <c r="D502" t="inlineStr"/>
-      <c r="E502" t="inlineStr"/>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>396, 209</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>323, 224</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>0.6846023969664258</v>
+      </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr"/>
@@ -17862,7 +20072,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ROI_50_1</t>
+          <t>ROI_50_2</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -17870,9 +20080,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr"/>
-      <c r="D503" t="inlineStr"/>
-      <c r="E503" t="inlineStr"/>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>425, 257</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>333, 235</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>0.6676458006559247</v>
+      </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr"/>
@@ -17891,7 +20111,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>ROI_50_2</t>
+          <t>ROI_50_3</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -17899,9 +20119,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C504" t="inlineStr"/>
-      <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr"/>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>427, 273</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>309, 208</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>0.7547952693301531</v>
+      </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr"/>
@@ -17920,7 +20150,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>ROI_50_3</t>
+          <t>ROI_50_4</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -17928,9 +20158,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C505" t="inlineStr"/>
-      <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>413, 242</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>326, 218</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>0.5760343087790111</v>
+      </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
       <c r="H505" t="inlineStr"/>
@@ -17949,7 +20189,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>ROI_50_4</t>
+          <t>ROI_50_5</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -17957,9 +20197,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C506" t="inlineStr"/>
-      <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr"/>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>417, 261</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>330, 223</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>0.653546332894159</v>
+      </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr"/>
       <c r="H506" t="inlineStr"/>
@@ -17978,7 +20228,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>ROI_50_5</t>
+          <t>ROI_50_6</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -17986,9 +20236,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C507" t="inlineStr"/>
-      <c r="D507" t="inlineStr"/>
-      <c r="E507" t="inlineStr"/>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>396, 207</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>313, 214</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>0.5654503464203233</v>
+      </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr"/>
@@ -18007,7 +20267,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>ROI_50_6</t>
+          <t>ROI_50_7</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -18015,9 +20275,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C508" t="inlineStr"/>
-      <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>384, 180</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>311, 204</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>0.7912320016485073</v>
+      </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr"/>
       <c r="H508" t="inlineStr"/>
@@ -18036,7 +20306,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>ROI_50_7</t>
+          <t>ROI_50_8</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -18044,9 +20314,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C509" t="inlineStr"/>
-      <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr"/>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>376, 173</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>314, 211</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>0.8147525337453984</v>
+      </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr"/>
       <c r="H509" t="inlineStr"/>
@@ -18065,7 +20345,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>ROI_50_8</t>
+          <t>ROI_50_9</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -18073,9 +20353,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C510" t="inlineStr"/>
-      <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>367, 170</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>310, 213</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>0.9082414344641805</v>
+      </c>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr"/>
@@ -18094,7 +20384,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ROI_50_9</t>
+          <t>ROI_51_0</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -18102,9 +20392,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C511" t="inlineStr"/>
-      <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>412, 250</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>278, 247</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>1.089488752556237</v>
+      </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
       <c r="H511" t="inlineStr"/>
@@ -18123,7 +20423,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>ROI_51_0</t>
+          <t>ROI_51_1</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -18131,9 +20431,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C512" t="inlineStr"/>
-      <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>370, 216</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>286, 248</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>1.178758149513633</v>
+      </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr"/>
       <c r="H512" t="inlineStr"/>
@@ -18152,7 +20462,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>ROI_51_1</t>
+          <t>ROI_51_2</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -18160,9 +20470,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C513" t="inlineStr"/>
-      <c r="D513" t="inlineStr"/>
-      <c r="E513" t="inlineStr"/>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>381, 224</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>290, 252</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>1.090301815752718</v>
+      </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr"/>
@@ -18181,7 +20501,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ROI_51_2</t>
+          <t>ROI_51_3</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -18189,9 +20509,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C514" t="inlineStr"/>
-      <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>390, 221</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>296, 250</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>1.092972410203019</v>
+      </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr"/>
@@ -18210,7 +20540,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>ROI_51_3</t>
+          <t>ROI_51_4</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -18218,9 +20548,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C515" t="inlineStr"/>
-      <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr"/>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>381, 245</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>286, 247</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>1.123566744235244</v>
+      </c>
       <c r="F515" t="inlineStr"/>
       <c r="G515" t="inlineStr"/>
       <c r="H515" t="inlineStr"/>
@@ -18239,7 +20579,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>ROI_51_4</t>
+          <t>ROI_51_5</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -18247,9 +20587,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C516" t="inlineStr"/>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>390, 252</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>290, 252</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>1.132541231475326</v>
+      </c>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
       <c r="H516" t="inlineStr"/>
@@ -18268,7 +20618,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>ROI_51_5</t>
+          <t>ROI_51_6</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
@@ -18276,9 +20626,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C517" t="inlineStr"/>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>394, 246</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>273, 246</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>1.09129784937308</v>
+      </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr"/>
@@ -18297,7 +20657,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>ROI_51_6</t>
+          <t>ROI_51_7</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -18305,9 +20665,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>369, 220</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>278, 247</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>1.20766924752518</v>
+      </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr"/>
       <c r="H518" t="inlineStr"/>
@@ -18326,7 +20696,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>ROI_51_7</t>
+          <t>ROI_51_8</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -18334,9 +20704,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr"/>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>367, 223</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>279, 252</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>1.176273011088384</v>
+      </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr"/>
@@ -18355,7 +20735,7 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>ROI_51_8</t>
+          <t>ROI_51_9</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
@@ -18363,9 +20743,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr"/>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>366, 213</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>292, 257</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>1.160758641013767</v>
+      </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr"/>
@@ -18384,7 +20774,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>ROI_51_9</t>
+          <t>ROI_52_0</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
@@ -18392,9 +20782,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr"/>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>346, 110</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>280, 148</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>0.8809042480535446</v>
+      </c>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr"/>
@@ -18413,7 +20813,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>ROI_52_0</t>
+          <t>ROI_52_1</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -18421,9 +20821,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr"/>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>350, 114</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>292, 158</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>0.9032350661652839</v>
+      </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr"/>
@@ -18442,7 +20852,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>ROI_52_1</t>
+          <t>ROI_52_2</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -18450,9 +20860,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr"/>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>350, 114</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>281, 156</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>0.8505442777287437</v>
+      </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr"/>
@@ -18471,7 +20891,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>ROI_52_2</t>
+          <t>ROI_52_3</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
@@ -18479,9 +20899,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr"/>
-      <c r="E524" t="inlineStr"/>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>344, 108</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>280, 157</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>0.9119362580933243</v>
+      </c>
       <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr"/>
@@ -18500,7 +20930,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>ROI_52_3</t>
+          <t>ROI_52_4</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -18508,9 +20938,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr"/>
-      <c r="E525" t="inlineStr"/>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>343, 105</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>283, 163</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>0.9084999097084278</v>
+      </c>
       <c r="F525" t="inlineStr"/>
       <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr"/>
@@ -18529,7 +20969,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>ROI_52_4</t>
+          <t>ROI_52_5</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -18537,9 +20977,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C526" t="inlineStr"/>
-      <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr"/>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>351, 96</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>286, 167</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>0.9018724187967406</v>
+      </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr"/>
@@ -18558,7 +21008,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>ROI_52_5</t>
+          <t>ROI_52_6</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
@@ -18566,9 +21016,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C527" t="inlineStr"/>
-      <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>347, 105</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>279, 168</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>0.8389621884767515</v>
+      </c>
       <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr"/>
@@ -18587,7 +21047,7 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>ROI_52_6</t>
+          <t>ROI_52_7</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
@@ -18595,9 +21055,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr"/>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>350, 107</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>279, 163</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>0.8651384424519257</v>
+      </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr"/>
@@ -18616,7 +21086,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>ROI_52_7</t>
+          <t>ROI_52_8</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
@@ -18624,9 +21094,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr"/>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>345, 106</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>271, 157</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>0.9211732894427462</v>
+      </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr"/>
@@ -18645,7 +21125,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>ROI_52_8</t>
+          <t>ROI_52_9</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
@@ -18653,9 +21133,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr"/>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>351, 109</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>282, 172</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>0.8618862940168058</v>
+      </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr"/>
@@ -18674,7 +21164,7 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>ROI_52_9</t>
+          <t>ROI_53_0</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
@@ -18682,9 +21172,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr"/>
-      <c r="E531" t="inlineStr"/>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>350, 260</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>271, 233</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>0.8735315906445126</v>
+      </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr"/>
@@ -18703,7 +21203,7 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>ROI_53_0</t>
+          <t>ROI_53_1</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
@@ -18711,9 +21211,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr"/>
-      <c r="E532" t="inlineStr"/>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>343, 238</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>264, 230</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>0.7838673122488926</v>
+      </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr"/>
       <c r="H532" t="inlineStr"/>
@@ -18732,7 +21242,7 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>ROI_53_1</t>
+          <t>ROI_53_2</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
@@ -18740,9 +21250,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr"/>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>350, 236</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>272, 236</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>0.766119457976829</v>
+      </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr"/>
@@ -18761,7 +21281,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>ROI_53_2</t>
+          <t>ROI_53_3</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -18769,9 +21289,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C534" t="inlineStr"/>
-      <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr"/>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>346, 237</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>261, 235</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>0.8023127863473581</v>
+      </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr"/>
@@ -18790,7 +21320,7 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>ROI_53_3</t>
+          <t>ROI_53_4</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
@@ -18798,9 +21328,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr"/>
-      <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr"/>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>344, 234</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>261, 229</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>0.7977593863544611</v>
+      </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
       <c r="H535" t="inlineStr"/>
@@ -18819,7 +21359,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>ROI_53_4</t>
+          <t>ROI_53_5</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
@@ -18827,9 +21367,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr"/>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>342, 231</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>264, 234</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>0.8026961558715112</v>
+      </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr"/>
@@ -18848,7 +21398,7 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>ROI_53_5</t>
+          <t>ROI_53_6</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
@@ -18856,9 +21406,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr"/>
-      <c r="E537" t="inlineStr"/>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>344, 259</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>264, 239</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>0.8351159007726718</v>
+      </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr"/>
       <c r="H537" t="inlineStr"/>
@@ -18877,7 +21437,7 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>ROI_53_6</t>
+          <t>ROI_53_7</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
@@ -18885,9 +21445,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr"/>
-      <c r="E538" t="inlineStr"/>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>344, 249</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>260, 236</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>0.8326991580310881</v>
+      </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr"/>
       <c r="H538" t="inlineStr"/>
@@ -18906,7 +21476,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>ROI_53_7</t>
+          <t>ROI_53_8</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
@@ -18914,9 +21484,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>343, 258</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>255, 226</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>0.7686360263969699</v>
+      </c>
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr"/>
       <c r="H539" t="inlineStr"/>
@@ -18935,7 +21515,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>ROI_53_8</t>
+          <t>ROI_53_9</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
@@ -18943,9 +21523,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr"/>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>341, 234</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>249, 230</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>0.7577297169065317</v>
+      </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr"/>
       <c r="H540" t="inlineStr"/>
@@ -18964,7 +21554,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>ROI_53_9</t>
+          <t>ROI_54_0</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
@@ -18972,9 +21562,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr"/>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>383, 223</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>320, 208</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>0.7860192516689954</v>
+      </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr"/>
       <c r="H541" t="inlineStr"/>
@@ -18993,7 +21593,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>ROI_54_0</t>
+          <t>ROI_54_1</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -19001,9 +21601,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr"/>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>367, 173</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>274, 184</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>0.7024838185122597</v>
+      </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr"/>
@@ -19022,7 +21632,7 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>ROI_54_1</t>
+          <t>ROI_54_2</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
@@ -19030,9 +21640,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr"/>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>344, 148</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>269, 171</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>0.9807134516141184</v>
+      </c>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr"/>
@@ -19051,7 +21671,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>ROI_54_2</t>
+          <t>ROI_54_3</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
@@ -19059,9 +21679,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr"/>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>335, 142</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>269, 181</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>1.090583800539599</v>
+      </c>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr"/>
@@ -19080,7 +21710,7 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>ROI_54_3</t>
+          <t>ROI_54_4</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -19088,9 +21718,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>335, 140</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>274, 169</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>1.0847695163062</v>
+      </c>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr"/>
@@ -19109,7 +21749,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>ROI_54_4</t>
+          <t>ROI_54_5</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
@@ -19117,9 +21757,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr"/>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>334, 140</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>269, 173</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>1.074224920541271</v>
+      </c>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr"/>
@@ -19138,7 +21788,7 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>ROI_54_5</t>
+          <t>ROI_54_6</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
@@ -19146,9 +21796,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr"/>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>335, 142</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>276, 168</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>1.105901607778954</v>
+      </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr"/>
@@ -19167,7 +21827,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>ROI_54_6</t>
+          <t>ROI_54_7</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -19175,9 +21835,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr"/>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>345, 147</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>276, 176</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>0.9669465244686485</v>
+      </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr"/>
@@ -19196,7 +21866,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>ROI_54_7</t>
+          <t>ROI_54_8</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -19204,9 +21874,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr"/>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>347, 149</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>279, 175</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>0.937907044158856</v>
+      </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr"/>
@@ -19225,7 +21905,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>ROI_54_8</t>
+          <t>ROI_54_9</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -19233,9 +21913,19 @@
           <t>possui esteatose</t>
         </is>
       </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr"/>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>350, 158</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>284, 175</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>0.9000676361176868</v>
+      </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr"/>
@@ -19251,35 +21941,6 @@
       <c r="R550" t="inlineStr"/>
       <c r="S550" t="inlineStr"/>
     </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>ROI_54_9</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>possui esteatose</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
-      <c r="H551" t="inlineStr"/>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="inlineStr"/>
-      <c r="M551" t="inlineStr"/>
-      <c r="N551" t="inlineStr"/>
-      <c r="O551" t="inlineStr"/>
-      <c r="P551" t="inlineStr"/>
-      <c r="Q551" t="inlineStr"/>
-      <c r="R551" t="inlineStr"/>
-      <c r="S551" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
